--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[3, 2, 4, 1, 3, 4, 1, 2, 2, 4, 3, 1, 2, 3, 4, 1, 4, 2, 1, 3, 4, 2, 3, 1, 2, 4, 3, 1, 1, 2, 4, 3, 1, 2, 4, 3, 3, 1, 4, 2, 2, 1, 4, 3, 1, 2, 4, 3, 4, 1, 2, 3, 3, 2, 1, 4, 1, 3, 4, 2, 4, 1, 3, 2, 3, 4, 2, 1, 2, 3, 1, 4, 2, 4, 3, 1, 2, 3, 1, 4, 1, 2, 3, 4, 4, 3, 1, 2, 4, 3, 1, 2, 2, 4, 3, 1]</t>
+          <t>['D', 'D', 'A', 'D', 'C', 'C', 'C', 'B', 'D', 'B', 'C', 'A', 'D', 'C', 'D', 'A', 'A', 'D', 'D', 'B', 'C', 'B', 'A', 'D', 'A', 'B', 'C', 'B', 'D', 'B', 'B', 'C', 'A', 'C', 'A', 'C', 'A', 'B', 'D', 'C', 'B', 'C', 'A', 'A', 'A', 'D', 'B', 'B', 'A', 'A', 'C', 'B', 'D', 'B', 'C', 'A', 'D', 'A', 'A', 'C', 'B', 'B', 'D', 'C', 'B', 'C', 'C', 'C', 'A', 'A', 'C', 'A', 'B', 'B', 'A', 'C', 'A', 'D', 'A', 'A', 'D', 'D', 'B', 'D', 'C', 'C', 'D', 'A', 'B', 'B', 'C', 'C', 'B', 'A', 'A', 'B']</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[4, 1, 2, 3, 4, 2, 3, 1, 3, 1, 2, 4, 3, 2, 1, 4, 1, 4, 3, 2, 2, 4, 1, 3, 3, 4, 2, 1, 3, 1, 2, 4, 4, 3, 2, 1, 3, 1, 2, 4, 4, 1, 2, 3, 2, 4, 3, 1, 3, 1, 4, 2, 1, 4, 2, 3, 1, 3, 2, 4, 3, 4, 2, 1, 1, 4, 2, 3, 3, 4, 1, 2, 4, 2, 1, 3, 3, 1, 2, 4, 3, 2, 1, 4, 1, 3, 4, 2, 3, 2, 1, 4, 2, 3, 1, 4]</t>
+          <t>['B', 'A', 'A', 'B', 'C', 'B', 'A', 'A', 'C', 'B', 'C', 'A', 'B', 'B', 'C', 'D', 'D', 'D', 'A', 'A', 'A', 'A', 'D', 'D', 'C', 'A', 'C', 'B', 'B', 'A', 'A', 'D', 'D', 'D', 'C', 'B', 'C', 'C', 'A', 'B', 'D', 'C', 'A', 'B', 'B', 'A', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'B', 'D', 'D', 'C', 'A', 'C', 'D', 'C', 'D', 'D', 'D', 'B', 'B', 'B', 'D', 'A', 'A', 'B', 'C', 'B', 'B', 'A', 'C', 'D', 'D', 'D', 'D', 'A', 'B', 'B', 'B', 'B', 'C', 'C', 'B', 'D', 'C', 'D', 'C', 'B', 'B', 'D', 'C']</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[2, 3, 1, 4, 1, 4, 2, 3, 4, 3, 1, 2, 4, 1, 3, 2, 3, 1, 4, 2, 3, 4, 1, 2, 3, 2, 4, 1, 3, 2, 4, 1, 4, 3, 1, 2, 2, 1, 3, 4, 4, 1, 3, 2, 4, 3, 1, 2, 1, 3, 2, 4, 2, 1, 4, 3, 4, 1, 3, 2, 4, 3, 1, 2, 3, 2, 4, 1, 4, 1, 2, 3, 4, 1, 2, 3, 1, 2, 3, 4, 2, 1, 4, 3, 3, 1, 2, 4, 4, 3, 1, 2, 3, 2, 4, 1]</t>
+          <t>['C', 'B', 'C', 'C', 'A', 'C', 'C', 'D', 'A', 'C', 'C', 'A', 'D', 'B', 'D', 'A', 'D', 'A', 'B', 'A', 'D', 'A', 'B', 'A', 'C', 'B', 'A', 'B', 'A', 'D', 'A', 'A', 'D', 'B', 'B', 'B', 'B', 'C', 'A', 'D', 'C', 'C', 'A', 'C', 'C', 'D', 'B', 'A', 'D', 'A', 'D', 'C', 'B', 'C', 'C', 'D', 'D', 'B', 'A', 'C', 'B', 'B', 'D', 'C', 'B', 'D', 'C', 'C', 'B', 'D', 'A', 'C', 'C', 'C', 'D', 'C', 'C', 'B', 'D', 'D', 'C', 'C', 'B', 'A', 'D', 'C', 'B', 'C', 'C', 'C', 'B', 'D', 'B', 'A', 'B', 'A']</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[4, 3, 2, 1, 3, 1, 4, 2, 4, 2, 3, 1, 1, 3, 2, 4, 1, 4, 2, 3, 1, 3, 2, 4, 2, 3, 4, 1, 3, 4, 1, 2, 1, 2, 3, 4, 4, 1, 2, 3, 4, 1, 3, 2, 1, 4, 3, 2, 2, 1, 3, 4, 3, 2, 4, 1, 4, 3, 1, 2, 1, 4, 2, 3, 4, 1, 2, 3, 1, 3, 4, 2, 4, 2, 3, 1, 3, 4, 2, 1, 1, 4, 3, 2, 3, 4, 1, 2, 3, 4, 2, 1, 2, 1, 4, 3]</t>
+          <t>['D', 'D', 'B', 'A', 'A', 'B', 'A', 'C', 'B', 'A', 'B', 'A', 'B', 'D', 'D', 'A', 'B', 'B', 'A', 'A', 'B', 'A', 'B', 'B', 'A', 'B', 'A', 'B', 'D', 'C', 'B', 'B', 'C', 'B', 'A', 'D', 'B', 'C', 'C', 'A', 'C', 'D', 'D', 'D', 'D', 'A', 'B', 'A', 'C', 'B', 'B', 'D', 'B', 'C', 'D', 'B', 'D', 'B', 'D', 'C', 'B', 'B', 'B', 'D', 'C', 'A', 'D', 'D', 'A', 'D', 'A', 'D', 'C', 'A', 'A', 'D', 'B', 'B', 'D', 'C', 'C', 'B', 'A', 'A', 'D', 'B', 'C', 'C', 'C', 'D', 'D', 'B', 'D', 'A', 'C', 'A']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[2, 3, 1, 4, 2, 3, 1, 4, 3, 4, 2, 1, 2, 4, 3, 1, 3, 4, 1, 2, 1, 2, 3, 4, 4, 2, 3, 1, 3, 1, 4, 2, 1, 3, 2, 4, 3, 4, 1, 2, 4, 3, 2, 1, 4, 1, 3, 2, 1, 4, 2, 3, 4, 1, 2, 3, 1, 4, 3, 2, 3, 4, 2, 1, 3, 1, 2, 4, 1, 2, 4, 3, 4, 1, 2, 3, 4, 1, 2, 3, 1, 2, 3, 4, 2, 4, 3, 1, 4, 2, 3, 1, 3, 1, 2, 4]</t>
+          <t>['D', 'D', 'B', 'D', 'C', 'A', 'D', 'B', 'B', 'A', 'C', 'B', 'A', 'A', 'A', 'A', 'D', 'D', 'A', 'B', 'B', 'D', 'D', 'B', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'A', 'D', 'A', 'C', 'D', 'D', 'D', 'C', 'B', 'A', 'A', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'A', 'D', 'A', 'A', 'A', 'A', 'C', 'C', 'C', 'D', 'B', 'A', 'B', 'A', 'A', 'A', 'D', 'D', 'B', 'D', 'B', 'C', 'A', 'D', 'D', 'D', 'B', 'C', 'C', 'D', 'B', 'A', 'B', 'B', 'B', 'C', 'C', 'D', 'D', 'A', 'D', 'A', 'A', 'C', 'A', 'B', 'D']</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 2, 3, 4, 1, 2, 2, 4, 1, 3, 2, 3, 4, 1, 2, 4, 3, 1, 3, 2, 1, 4, 1, 2, 4, 3, 3, 2, 4, 1, 1, 4, 3, 2, 3, 2, 1, 4, 2, 1, 4, 3, 1, 3, 4, 2, 4, 1, 2, 3, 3, 2, 1, 4, 3, 4, 1, 2, 3, 2, 4, 1, 3, 2, 4, 1, 3, 4, 1, 2, 4, 2, 1, 3, 1, 3, 4, 2, 4, 1, 2, 3, 2, 4, 3, 1, 3, 4, 1, 2, 2, 3, 1, 4]</t>
+          <t>['C', 'A', 'C', 'A', 'C', 'B', 'C', 'A', 'A', 'C', 'A', 'D', 'A', 'D', 'C', 'B', 'C', 'A', 'D', 'D', 'A', 'B', 'D', 'B', 'B', 'B', 'B', 'D', 'D', 'B', 'B', 'C', 'C', 'C', 'B', 'D', 'B', 'A', 'A', 'A', 'A', 'D', 'A', 'D', 'B', 'B', 'A', 'C', 'A', 'D', 'D', 'B', 'A', 'B', 'A', 'B', 'D', 'A', 'C', 'A', 'B', 'D', 'A', 'B', 'C', 'B', 'C', 'B', 'B', 'A', 'B', 'C', 'D', 'A', 'C', 'C', 'D', 'B', 'B', 'B', 'A', 'A', 'D', 'B', 'A', 'D', 'B', 'D', 'B', 'C', 'A', 'D', 'C', 'C', 'B', 'A']</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[4, 2, 3, 1, 2, 4, 1, 3, 1, 4, 2, 3, 2, 4, 3, 1, 4, 3, 1, 2, 3, 2, 1, 4, 4, 1, 2, 3, 2, 3, 1, 4, 1, 3, 4, 2, 2, 1, 4, 3, 3, 1, 2, 4, 3, 4, 2, 1, 3, 1, 4, 2, 1, 3, 2, 4, 1, 2, 3, 4, 3, 2, 1, 4, 2, 4, 3, 1, 4, 2, 3, 1, 4, 2, 1, 3, 2, 1, 3, 4, 4, 3, 1, 2, 4, 1, 3, 2, 2, 1, 3, 4, 4, 1, 3, 2]</t>
+          <t>['C', 'D', 'C', 'B', 'C', 'B', 'D', 'C', 'A', 'D', 'D', 'D', 'B', 'C', 'D', 'B', 'A', 'B', 'A', 'C', 'B', 'B', 'D', 'A', 'B', 'D', 'C', 'D', 'B', 'D', 'B', 'B', 'D', 'C', 'B', 'C', 'B', 'B', 'C', 'A', 'A', 'C', 'C', 'B', 'D', 'C', 'B', 'C', 'D', 'A', 'C', 'D', 'B', 'B', 'D', 'B', 'A', 'D', 'D', 'D', 'C', 'D', 'D', 'A', 'B', 'C', 'D', 'C', 'A', 'B', 'B', 'D', 'C', 'B', 'A', 'A', 'A', 'A', 'C', 'A', 'A', 'A', 'B', 'D', 'C', 'C', 'A', 'D', 'D', 'A', 'D', 'B', 'A', 'B', 'D', 'A']</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[2, 1, 3, 4, 3, 4, 1, 2, 2, 1, 4, 3, 1, 2, 4, 3, 1, 3, 2, 4, 4, 3, 1, 2, 2, 4, 3, 1, 3, 2, 4, 1, 4, 3, 2, 1, 2, 4, 3, 1, 4, 3, 1, 2, 2, 1, 3, 4, 1, 3, 4, 2, 1, 4, 2, 3, 3, 4, 1, 2, 2, 1, 4, 3, 1, 4, 3, 2, 4, 2, 3, 1, 4, 2, 1, 3, 2, 4, 1, 3, 4, 3, 2, 1, 2, 1, 4, 3, 4, 3, 2, 1, 1, 3, 4, 2]</t>
+          <t>['C', 'D', 'A', 'B', 'B', 'B', 'B', 'C', 'D', 'A', 'D', 'C', 'C', 'D', 'D', 'A', 'B', 'B', 'B', 'A', 'B', 'D', 'C', 'A', 'D', 'C', 'A', 'D', 'B', 'B', 'D', 'A', 'D', 'B', 'B', 'C', 'D', 'B', 'D', 'B', 'D', 'A', 'A', 'D', 'B', 'A', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'A', 'D', 'A', 'C', 'A', 'D', 'C', 'C', 'B', 'B', 'D', 'B', 'B', 'D', 'B', 'A', 'D', 'D', 'C', 'D', 'A', 'B', 'A', 'A', 'B', 'B', 'B', 'B', 'C', 'B', 'D', 'D', 'D', 'A', 'A', 'A', 'D', 'C', 'A', 'B', 'A', 'D', 'C']</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[2, 1, 3, 4, 3, 2, 1, 4, 3, 4, 1, 2, 1, 4, 3, 2, 1, 2, 4, 3, 4, 2, 1, 3, 2, 3, 4, 1, 4, 2, 1, 3, 2, 4, 1, 3, 3, 4, 2, 1, 2, 3, 1, 4, 3, 2, 1, 4, 1, 4, 3, 2, 2, 4, 3, 1, 3, 4, 1, 2, 1, 2, 4, 3, 1, 2, 4, 3, 4, 3, 1, 2, 1, 3, 2, 4, 3, 2, 4, 1, 2, 1, 3, 4, 4, 3, 1, 2, 4, 2, 3, 1, 4, 2, 1, 3]</t>
+          <t>['B', 'C', 'A', 'A', 'A', 'A', 'A', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'A', 'D', 'B', 'B', 'D', 'B', 'C', 'A', 'B', 'D', 'C', 'B', 'D', 'C', 'D', 'D', 'B', 'A', 'D', 'A', 'D', 'C', 'A', 'C', 'D', 'A', 'D', 'B', 'B', 'A', 'A', 'B', 'C', 'C', 'C', 'B', 'C', 'D', 'A', 'D', 'B', 'A', 'D', 'A', 'D', 'A', 'B', 'A', 'B', 'B', 'B', 'B', 'B', 'B', 'A', 'D', 'A', 'A', 'C', 'C', 'B', 'A', 'C', 'C', 'D', 'C', 'B', 'A', 'C', 'D', 'C', 'D', 'D', 'B', 'D', 'B', 'C', 'B', 'D', 'C', 'A', 'A']</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 4, 2, 3, 1, 3, 4, 2, 2, 3, 1, 4, 2, 4, 1, 3, 1, 2, 4, 3, 4, 1, 3, 2, 4, 2, 3, 1, 4, 2, 1, 3, 4, 1, 3, 2, 4, 1, 3, 2, 2, 4, 3, 1, 1, 3, 4, 2, 2, 1, 3, 4, 1, 4, 3, 2, 1, 2, 3, 4, 2, 3, 4, 1, 1, 3, 4, 2, 4, 2, 1, 3, 3, 4, 1, 2, 3, 1, 4, 2, 3, 1, 2, 4, 1, 4, 3, 2, 2, 3, 4, 1, 4, 1, 2, 3]</t>
+          <t>['D', 'B', 'A', 'C', 'D', 'B', 'A', 'D', 'D', 'A', 'C', 'B', 'C', 'A', 'B', 'A', 'A', 'B', 'A', 'A', 'C', 'B', 'A', 'D', 'C', 'D', 'C', 'A', 'D', 'C', 'C', 'B', 'B', 'C', 'C', 'A', 'A', 'D', 'A', 'C', 'C', 'C', 'D', 'B', 'C', 'B', 'B', 'A', 'A', 'B', 'A', 'A', 'A', 'A', 'D', 'D', 'C', 'A', 'A', 'D', 'D', 'A', 'C', 'A', 'D', 'D', 'D', 'B', 'B', 'B', 'D', 'D', 'D', 'A', 'B', 'B', 'D', 'B', 'A', 'C', 'A', 'C', 'C', 'B', 'B', 'D', 'C', 'D', 'A', 'C', 'C', 'C', 'B', 'C', 'B', 'D']</t>
         </is>
       </c>
     </row>

--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2012</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -467,13 +467,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['D', 'D', 'A', 'D', 'C', 'C', 'C', 'B', 'D', 'B', 'C', 'A', 'D', 'C', 'D', 'A', 'A', 'D', 'D', 'B', 'C', 'B', 'A', 'D', 'A', 'B', 'C', 'B', 'D', 'B', 'B', 'C', 'A', 'C', 'A', 'C', 'A', 'B', 'D', 'C', 'B', 'C', 'A', 'A', 'A', 'D', 'B', 'B', 'A', 'A', 'C', 'B', 'D', 'B', 'C', 'A', 'D', 'A', 'A', 'C', 'B', 'B', 'D', 'C', 'B', 'C', 'C', 'C', 'A', 'A', 'C', 'A', 'B', 'B', 'A', 'C', 'A', 'D', 'A', 'A', 'D', 'D', 'B', 'D', 'C', 'C', 'D', 'A', 'B', 'B', 'C', 'C', 'B', 'A', 'A', 'B']</t>
+          <t>['C', 'D', 'A', 'B', 'C', 'B', 'D', 'A', 'C', 'D', 'A', 'B', 'B', 'D', 'A', 'C', 'D', 'B', 'C', 'A', 'D', 'C', 'B', 'A', 'C', 'B', 'A', 'D', 'B', 'C', 'A', 'D', 'C', 'B', 'A', 'D', 'C', 'D', 'A', 'B', 'A', 'C', 'D', 'B', 'A', 'D', 'C', 'B']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>2013</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -483,13 +483,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['B', 'A', 'A', 'B', 'C', 'B', 'A', 'A', 'C', 'B', 'C', 'A', 'B', 'B', 'C', 'D', 'D', 'D', 'A', 'A', 'A', 'A', 'D', 'D', 'C', 'A', 'C', 'B', 'B', 'A', 'A', 'D', 'D', 'D', 'C', 'B', 'C', 'C', 'A', 'B', 'D', 'C', 'A', 'B', 'B', 'A', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'B', 'D', 'D', 'C', 'A', 'C', 'D', 'C', 'D', 'D', 'D', 'B', 'B', 'B', 'D', 'A', 'A', 'B', 'C', 'B', 'B', 'A', 'C', 'D', 'D', 'D', 'D', 'A', 'B', 'B', 'B', 'B', 'C', 'C', 'B', 'D', 'C', 'D', 'C', 'B', 'B', 'D', 'C']</t>
+          <t>['C', 'D', 'A', 'B', 'C', 'B', 'D', 'A', 'C', 'D', 'A', 'B', 'B', 'D', 'A', 'C', 'D', 'B', 'C', 'A', 'D', 'C', 'B', 'A', 'C', 'B', 'A', 'D', 'B', 'C', 'A', 'D', 'C', 'B', 'A', 'D', 'C', 'D', 'A', 'B', 'A', 'C', 'D', 'B', 'A', 'D', 'C', 'B']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2014</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -499,13 +499,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['C', 'B', 'C', 'C', 'A', 'C', 'C', 'D', 'A', 'C', 'C', 'A', 'D', 'B', 'D', 'A', 'D', 'A', 'B', 'A', 'D', 'A', 'B', 'A', 'C', 'B', 'A', 'B', 'A', 'D', 'A', 'A', 'D', 'B', 'B', 'B', 'B', 'C', 'A', 'D', 'C', 'C', 'A', 'C', 'C', 'D', 'B', 'A', 'D', 'A', 'D', 'C', 'B', 'C', 'C', 'D', 'D', 'B', 'A', 'C', 'B', 'B', 'D', 'C', 'B', 'D', 'C', 'C', 'B', 'D', 'A', 'C', 'C', 'C', 'D', 'C', 'C', 'B', 'D', 'D', 'C', 'C', 'B', 'A', 'D', 'C', 'B', 'C', 'C', 'C', 'B', 'D', 'B', 'A', 'B', 'A']</t>
+          <t>['D', 'C', 'B', 'A', 'C', 'D', 'A', 'B', 'C', 'D', 'A', 'B', 'B', 'A', 'C', 'D', 'B', 'A', 'C', 'D', 'A', 'B', 'C', 'D', 'C', 'D', 'B', 'A', 'D', 'C', 'B', 'A', 'B', 'A', 'C', 'D', 'A', 'D', 'C', 'B', 'D', 'B', 'A', 'C', 'D', 'C', 'B', 'A']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>2015</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -515,13 +515,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['D', 'D', 'B', 'A', 'A', 'B', 'A', 'C', 'B', 'A', 'B', 'A', 'B', 'D', 'D', 'A', 'B', 'B', 'A', 'A', 'B', 'A', 'B', 'B', 'A', 'B', 'A', 'B', 'D', 'C', 'B', 'B', 'C', 'B', 'A', 'D', 'B', 'C', 'C', 'A', 'C', 'D', 'D', 'D', 'D', 'A', 'B', 'A', 'C', 'B', 'B', 'D', 'B', 'C', 'D', 'B', 'D', 'B', 'D', 'C', 'B', 'B', 'B', 'D', 'C', 'A', 'D', 'D', 'A', 'D', 'A', 'D', 'C', 'A', 'A', 'D', 'B', 'B', 'D', 'C', 'C', 'B', 'A', 'A', 'D', 'B', 'C', 'C', 'C', 'D', 'D', 'B', 'D', 'A', 'C', 'A']</t>
+          <t>['D', 'C', 'B', 'A', 'C', 'D', 'A', 'B', 'C', 'D', 'A', 'B', 'B', 'A', 'C', 'D', 'B', 'A', 'C', 'D', 'A', 'B', 'C', 'D', 'C', 'D', 'B', 'A', 'D', 'C', 'B', 'A', 'B', 'A', 'C', 'D', 'A', 'D', 'C', 'B', 'D', 'B', 'A', 'C', 'D', 'C', 'B', 'A']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>2016</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -531,13 +531,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['D', 'D', 'B', 'D', 'C', 'A', 'D', 'B', 'B', 'A', 'C', 'B', 'A', 'A', 'A', 'A', 'D', 'D', 'A', 'B', 'B', 'D', 'D', 'B', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'A', 'D', 'A', 'C', 'D', 'D', 'D', 'C', 'B', 'A', 'A', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'A', 'D', 'A', 'A', 'A', 'A', 'C', 'C', 'C', 'D', 'B', 'A', 'B', 'A', 'A', 'A', 'D', 'D', 'B', 'D', 'B', 'C', 'A', 'D', 'D', 'D', 'B', 'C', 'C', 'D', 'B', 'A', 'B', 'B', 'B', 'C', 'C', 'D', 'D', 'A', 'D', 'A', 'A', 'C', 'A', 'B', 'D']</t>
+          <t>['B', 'C', 'A', 'D', 'C', 'D', 'A', 'B', 'B', 'D', 'C', 'A', 'C', 'A', 'D', 'B', 'D', 'A', 'C', 'B', 'A', 'D', 'B', 'C', 'C', 'B', 'A', 'D', 'A', 'D', 'B', 'C', 'D', 'B', 'C', 'A', 'D', 'C', 'A', 'B', 'C', 'B', 'D', 'A', 'A', 'B', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -547,13 +547,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['C', 'A', 'C', 'A', 'C', 'B', 'C', 'A', 'A', 'C', 'A', 'D', 'A', 'D', 'C', 'B', 'C', 'A', 'D', 'D', 'A', 'B', 'D', 'B', 'B', 'B', 'B', 'D', 'D', 'B', 'B', 'C', 'C', 'C', 'B', 'D', 'B', 'A', 'A', 'A', 'A', 'D', 'A', 'D', 'B', 'B', 'A', 'C', 'A', 'D', 'D', 'B', 'A', 'B', 'A', 'B', 'D', 'A', 'C', 'A', 'B', 'D', 'A', 'B', 'C', 'B', 'C', 'B', 'B', 'A', 'B', 'C', 'D', 'A', 'C', 'C', 'D', 'B', 'B', 'B', 'A', 'A', 'D', 'B', 'A', 'D', 'B', 'D', 'B', 'C', 'A', 'D', 'C', 'C', 'B', 'A']</t>
+          <t>['B', 'C', 'A', 'D', 'C', 'D', 'A', 'B', 'B', 'D', 'C', 'A', 'C', 'A', 'D', 'B', 'D', 'A', 'C', 'B', 'A', 'D', 'B', 'C', 'C', 'B', 'A', 'D', 'A', 'D', 'B', 'C', 'D', 'B', 'C', 'A', 'D', 'C', 'A', 'B', 'C', 'B', 'D', 'A', 'A', 'B', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -563,13 +563,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['C', 'D', 'C', 'B', 'C', 'B', 'D', 'C', 'A', 'D', 'D', 'D', 'B', 'C', 'D', 'B', 'A', 'B', 'A', 'C', 'B', 'B', 'D', 'A', 'B', 'D', 'C', 'D', 'B', 'D', 'B', 'B', 'D', 'C', 'B', 'C', 'B', 'B', 'C', 'A', 'A', 'C', 'C', 'B', 'D', 'C', 'B', 'C', 'D', 'A', 'C', 'D', 'B', 'B', 'D', 'B', 'A', 'D', 'D', 'D', 'C', 'D', 'D', 'A', 'B', 'C', 'D', 'C', 'A', 'B', 'B', 'D', 'C', 'B', 'A', 'A', 'A', 'A', 'C', 'A', 'A', 'A', 'B', 'D', 'C', 'C', 'A', 'D', 'D', 'A', 'D', 'B', 'A', 'B', 'D', 'A']</t>
+          <t>['D', 'C', 'B', 'A', 'A', 'B', 'C', 'D', 'A', 'D', 'B', 'C', 'C', 'A', 'B', 'D', 'C', 'B', 'A', 'D', 'A', 'D', 'B', 'C', 'D', 'B', 'C', 'A', 'A', 'D', 'B', 'C', 'A', 'D', 'B', 'C', 'B', 'A', 'C', 'D', 'D', 'A', 'B', 'C', 'B', 'C', 'D', 'A']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>2019</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -579,13 +579,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['C', 'D', 'A', 'B', 'B', 'B', 'B', 'C', 'D', 'A', 'D', 'C', 'C', 'D', 'D', 'A', 'B', 'B', 'B', 'A', 'B', 'D', 'C', 'A', 'D', 'C', 'A', 'D', 'B', 'B', 'D', 'A', 'D', 'B', 'B', 'C', 'D', 'B', 'D', 'B', 'D', 'A', 'A', 'D', 'B', 'A', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'A', 'D', 'A', 'C', 'A', 'D', 'C', 'C', 'B', 'B', 'D', 'B', 'B', 'D', 'B', 'A', 'D', 'D', 'C', 'D', 'A', 'B', 'A', 'A', 'B', 'B', 'B', 'B', 'C', 'B', 'D', 'D', 'D', 'A', 'A', 'A', 'D', 'C', 'A', 'B', 'A', 'D', 'C']</t>
+          <t>['D', 'C', 'B', 'A', 'A', 'B', 'C', 'D', 'A', 'D', 'B', 'C', 'C', 'A', 'B', 'D', 'C', 'B', 'A', 'D', 'A', 'D', 'B', 'C', 'D', 'B', 'C', 'A', 'A', 'D', 'B', 'C', 'A', 'D', 'B', 'C', 'B', 'A', 'C', 'D', 'D', 'A', 'B', 'C', 'B', 'C', 'D', 'A']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>2020</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
@@ -595,13 +595,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['B', 'C', 'A', 'A', 'A', 'A', 'A', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'A', 'D', 'B', 'B', 'D', 'B', 'C', 'A', 'B', 'D', 'C', 'B', 'D', 'C', 'D', 'D', 'B', 'A', 'D', 'A', 'D', 'C', 'A', 'C', 'D', 'A', 'D', 'B', 'B', 'A', 'A', 'B', 'C', 'C', 'C', 'B', 'C', 'D', 'A', 'D', 'B', 'A', 'D', 'A', 'D', 'A', 'B', 'A', 'B', 'B', 'B', 'B', 'B', 'B', 'A', 'D', 'A', 'A', 'C', 'C', 'B', 'A', 'C', 'C', 'D', 'C', 'B', 'A', 'C', 'D', 'C', 'D', 'D', 'B', 'D', 'B', 'C', 'B', 'D', 'C', 'A', 'A']</t>
+          <t>['B', 'C', 'D', 'A', 'D', 'A', 'B', 'C', 'A', 'D', 'C', 'B', 'C', 'A', 'B', 'D', 'A', 'C', 'B', 'D', 'B', 'D', 'C', 'A', 'A', 'C', 'B', 'D', 'A', 'B', 'C', 'D', 'D', 'B', 'A', 'C', 'C', 'B', 'D', 'A', 'B', 'C', 'D', 'A', 'D', 'C', 'A', 'B']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>2021</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -611,7 +611,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['D', 'B', 'A', 'C', 'D', 'B', 'A', 'D', 'D', 'A', 'C', 'B', 'C', 'A', 'B', 'A', 'A', 'B', 'A', 'A', 'C', 'B', 'A', 'D', 'C', 'D', 'C', 'A', 'D', 'C', 'C', 'B', 'B', 'C', 'C', 'A', 'A', 'D', 'A', 'C', 'C', 'C', 'D', 'B', 'C', 'B', 'B', 'A', 'A', 'B', 'A', 'A', 'A', 'A', 'D', 'D', 'C', 'A', 'A', 'D', 'D', 'A', 'C', 'A', 'D', 'D', 'D', 'B', 'B', 'B', 'D', 'D', 'D', 'A', 'B', 'B', 'D', 'B', 'A', 'C', 'A', 'C', 'C', 'B', 'B', 'D', 'C', 'D', 'A', 'C', 'C', 'C', 'B', 'C', 'B', 'D']</t>
+          <t>['B', 'C', 'D', 'A', 'D', 'A', 'B', 'C', 'A', 'D', 'C', 'B', 'C', 'A', 'B', 'D', 'A', 'C', 'B', 'D', 'B', 'D', 'C', 'A', 'A', 'C', 'B', 'D', 'A', 'B', 'C', 'D', 'D', 'B', 'A', 'C', 'C', 'B', 'D', 'A', 'B', 'C', 'D', 'A', 'D', 'C', 'A', 'B']</t>
         </is>
       </c>
     </row>

--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['C', 'D', 'A', 'B', 'C', 'B', 'D', 'A', 'C', 'D', 'A', 'B', 'B', 'D', 'A', 'C', 'D', 'B', 'C', 'A', 'D', 'C', 'B', 'A', 'C', 'B', 'A', 'D', 'B', 'C', 'A', 'D', 'C', 'B', 'A', 'D', 'C', 'D', 'A', 'B', 'A', 'C', 'D', 'B', 'A', 'D', 'C', 'B']</t>
+          <t>ABCDDCBACBADBDCAADBCCADBDABCCDBADBACABDCBCADDABC</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['C', 'D', 'A', 'B', 'C', 'B', 'D', 'A', 'C', 'D', 'A', 'B', 'B', 'D', 'A', 'C', 'D', 'B', 'C', 'A', 'D', 'C', 'B', 'A', 'C', 'B', 'A', 'D', 'B', 'C', 'A', 'D', 'C', 'B', 'A', 'D', 'C', 'D', 'A', 'B', 'A', 'C', 'D', 'B', 'A', 'D', 'C', 'B']</t>
+          <t>ABCDDCBACBADBDCAADBCCADBDABCCDBADBACABDCBCADDABC</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['D', 'C', 'B', 'A', 'C', 'D', 'A', 'B', 'C', 'D', 'A', 'B', 'B', 'A', 'C', 'D', 'B', 'A', 'C', 'D', 'A', 'B', 'C', 'D', 'C', 'D', 'B', 'A', 'D', 'C', 'B', 'A', 'B', 'A', 'C', 'D', 'A', 'D', 'C', 'B', 'D', 'B', 'A', 'C', 'D', 'C', 'B', 'A']</t>
+          <t>DABCABDCCBADDBCABCDABDACCABDDABCCBADCABDCDABBDAC</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['D', 'C', 'B', 'A', 'C', 'D', 'A', 'B', 'C', 'D', 'A', 'B', 'B', 'A', 'C', 'D', 'B', 'A', 'C', 'D', 'A', 'B', 'C', 'D', 'C', 'D', 'B', 'A', 'D', 'C', 'B', 'A', 'B', 'A', 'C', 'D', 'A', 'D', 'C', 'B', 'D', 'B', 'A', 'C', 'D', 'C', 'B', 'A']</t>
+          <t>DABCABDCCBADDBCABCDABDACCABDDABCCBADCABDCDABBDAC</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['B', 'C', 'A', 'D', 'C', 'D', 'A', 'B', 'B', 'D', 'C', 'A', 'C', 'A', 'D', 'B', 'D', 'A', 'C', 'B', 'A', 'D', 'B', 'C', 'C', 'B', 'A', 'D', 'A', 'D', 'B', 'C', 'D', 'B', 'C', 'A', 'D', 'C', 'A', 'B', 'C', 'B', 'D', 'A', 'A', 'B', 'D', 'C']</t>
+          <t>CBADACDBABDCBACDABDCBDACBDCADBACABDCCDBABCDABDAC</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['B', 'C', 'A', 'D', 'C', 'D', 'A', 'B', 'B', 'D', 'C', 'A', 'C', 'A', 'D', 'B', 'D', 'A', 'C', 'B', 'A', 'D', 'B', 'C', 'C', 'B', 'A', 'D', 'A', 'D', 'B', 'C', 'D', 'B', 'C', 'A', 'D', 'C', 'A', 'B', 'C', 'B', 'D', 'A', 'A', 'B', 'D', 'C']</t>
+          <t>CBADACDBABDCBACDABDCBDACBDCADBACABDCCDBABCDABDAC</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['D', 'C', 'B', 'A', 'A', 'B', 'C', 'D', 'A', 'D', 'B', 'C', 'C', 'A', 'B', 'D', 'C', 'B', 'A', 'D', 'A', 'D', 'B', 'C', 'D', 'B', 'C', 'A', 'A', 'D', 'B', 'C', 'A', 'D', 'B', 'C', 'B', 'A', 'C', 'D', 'D', 'A', 'B', 'C', 'B', 'C', 'D', 'A']</t>
+          <t>BDACABCDBCADACBDCDABDBCACABDADCBABDCBACDBCDADABC</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['D', 'C', 'B', 'A', 'A', 'B', 'C', 'D', 'A', 'D', 'B', 'C', 'C', 'A', 'B', 'D', 'C', 'B', 'A', 'D', 'A', 'D', 'B', 'C', 'D', 'B', 'C', 'A', 'A', 'D', 'B', 'C', 'A', 'D', 'B', 'C', 'B', 'A', 'C', 'D', 'D', 'A', 'B', 'C', 'B', 'C', 'D', 'A']</t>
+          <t>BDACABCDBCADACBDCDABDBCACABDADCBABDCBACDBCDADABC</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['B', 'C', 'D', 'A', 'D', 'A', 'B', 'C', 'A', 'D', 'C', 'B', 'C', 'A', 'B', 'D', 'A', 'C', 'B', 'D', 'B', 'D', 'C', 'A', 'A', 'C', 'B', 'D', 'A', 'B', 'C', 'D', 'D', 'B', 'A', 'C', 'C', 'B', 'D', 'A', 'B', 'C', 'D', 'A', 'D', 'C', 'A', 'B']</t>
+          <t>DBCACBDAACBDACDBDCABACDBADCBDABCDBACCDBAABCDADCB</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['B', 'C', 'D', 'A', 'D', 'A', 'B', 'C', 'A', 'D', 'C', 'B', 'C', 'A', 'B', 'D', 'A', 'C', 'B', 'D', 'B', 'D', 'C', 'A', 'A', 'C', 'B', 'D', 'A', 'B', 'C', 'D', 'D', 'B', 'A', 'C', 'C', 'B', 'D', 'A', 'B', 'C', 'D', 'A', 'D', 'C', 'A', 'B']</t>
+          <t>DBCACBDAACBDACDBDCABACDBADCBDABCDBACCDBAABCDADCB</t>
         </is>
       </c>
     </row>

--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -1,37 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\相机开发-Python\script_package\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69BA584-82F3-4E9B-A27C-F4C03A342757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>acSn</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>CADBABDCCDBACDBACDABCDABACDBBADCBCDABCDACBADACBD</t>
+  </si>
+  <si>
+    <t>acSn2014</t>
+  </si>
+  <si>
+    <t>DCABCBDACABDDABCACBDBCDACBDAABCDCABDBACDBCADADBC</t>
+  </si>
+  <si>
+    <t>acSn2015</t>
+  </si>
+  <si>
+    <t>acSn2016</t>
+  </si>
+  <si>
+    <t>ABCDACDBBDCAABDCACBDDABCCDABACBDDABCCDABDCBABCAD</t>
+  </si>
+  <si>
+    <t>acSn2017</t>
+  </si>
+  <si>
+    <t>acSn2018</t>
+  </si>
+  <si>
+    <t>CABDDCBABCADABCDDBACADCBCDBACBADCDABACBDBDCACDBA</t>
+  </si>
+  <si>
+    <t>acSn2019</t>
+  </si>
+  <si>
+    <t>acSn2020</t>
+  </si>
+  <si>
+    <t>BADCCBADBCDAABDCABCDCDBAABDCDABCBCDAACBDACBDDBAC</t>
+  </si>
+  <si>
+    <t>acSn2021</t>
+  </si>
+  <si>
+    <t>acSn042190120021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acSn042190120034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +131,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,202 +458,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>acSn</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rail</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>turn</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ABCDDCBACBADBDCAADBCCADBDABCCDBADBACABDCBCADDABC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ABCDDCBACBADBDCAADBCCADBDABCCDBADBACABDCBCADDABC</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>DABCABDCCBADDBCABCDABDACCABDDABCCBADCABDCDABBDAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DABCABDCCBADDBCABCDABDACCABDDABCCBADCABDCDABBDAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CBADACDBABDCBACDABDCBDACBDCADBACABDCCDBABCDABDAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CBADACDBABDCBACDABDCBDACBDCADBACABDCCDBABCDABDAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BDACABCDBCADACBDCDABDBCACABDADCBABDCBACDBCDADABC</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>BDACABCDBCADACBDCDABDBCACABDADCBABDCBACDBCDADABC</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DBCACBDAACBDACDBDCABACDBADCBDABCDBACCDBAABCDADCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DBCACBDAACBDACDBDCABACDBADCBDABCDBACCDBAABCDADCB</t>
-        </is>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -1,122 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\相机开发-Python\script_package\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69BA584-82F3-4E9B-A27C-F4C03A342757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>acSn</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>CADBABDCCDBACDBACDABCDABACDBBADCBCDABCDACBADACBD</t>
-  </si>
-  <si>
-    <t>acSn2014</t>
-  </si>
-  <si>
-    <t>DCABCBDACABDDABCACBDBCDACBDAABCDCABDBACDBCADADBC</t>
-  </si>
-  <si>
-    <t>acSn2015</t>
-  </si>
-  <si>
-    <t>acSn2016</t>
-  </si>
-  <si>
-    <t>ABCDACDBBDCAABDCACBDDABCCDABACBDDABCCDABDCBABCAD</t>
-  </si>
-  <si>
-    <t>acSn2017</t>
-  </si>
-  <si>
-    <t>acSn2018</t>
-  </si>
-  <si>
-    <t>CABDDCBABCADABCDDBACADCBCDBACBADCDABACBDBDCACDBA</t>
-  </si>
-  <si>
-    <t>acSn2019</t>
-  </si>
-  <si>
-    <t>acSn2020</t>
-  </si>
-  <si>
-    <t>BADCCBADBCDAABDCABCDCDBAABDCDABCBCDAACBDACBDDBAC</t>
-  </si>
-  <si>
-    <t>acSn2021</t>
-  </si>
-  <si>
-    <t>acSn042190120021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>acSn042190120034</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -131,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -458,172 +420,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>acSn</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>rail</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>turn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120021</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BCDAACBDACBDBADCBADCBDCAABCDBCADADCBBACDACDBCADB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120034</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BCDAACBDACBDBADCBADCBDCAABCDBCADADCBBACDACDBCADB</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120030</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CADBBDACADBCACBDDCBACBADDABCBDACDCABADBCCBADDBCA</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>acSn2023</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CADBBDACADBCACBDDCBACBADDABCBDACDCABADBCCBADDBCA</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BCDAACBDACBDBADCBADCBDCAABCDBCADADCBBACDACDBCADB</t>
+          <t>DBCACABDDCBAADCBDCABDCABCADBBCDACADBBCDAACBDBCADDBCAABCDCBDABDCAADCBBDCAADBCCDABCBADCDABCDBABDCADACBCBDADCABBCADADBCACDBDBACCBADDABCABCDACBDADCB</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BCDAACBDACBDBADCBADCBDCAABCDBCADADCBBACDACDBCADB</t>
+          <t>DBCACABDDCBAADCBDCABDCABCADBBCDACADBBCDAACBDBCADDBCAABCDCBDABDCAADCBBDCAADBCCDABCBADCDABCDBABDCADACBCBDADCABBCADADBCACDBDBACCBADDABCABCDACBDADCB</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CADBBDACADBCACBDDCBACBADDABCBDACDCABADBCCBADDBCA</t>
+          <t>CABDCADBBACDADCBACBDCABDDACBDCBABADCADCBCDBACADBADBCCDABADCBCBADCADBBACDCADBDABCACBDDBACDBACCBADCADBCADBBCDAACDBCBDAADBCBCDAACBDDCABBACDCBDABCAD</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CADBBDACADBCACBDDCBACBADDABCBDACDCABADBCCBADDBCA</t>
+          <t>CABDCADBBACDADCBACBDCABDDACBDCBABADCADCBCDBACADBADBCCDABADCBCBADCADBBACDCADBDABCACBDDBACDBACCBADCADBCADBBCDAACDBCBDAADBCBCDAACBDDCABBACDCBDABCAD</t>
         </is>
       </c>
     </row>

--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DBCACABDDCBAADCBDCABDCABCADBBCDACADBBCDAACBDBCADDBCAABCDCBDABDCAADCBBDCAADBCCDABCBADCDABCDBABDCADACBCBDADCABBCADADBCACDBDBACCBADDABCABCDACBDADCB</t>
+          <t>CBADDACBADBCCBADACDBDCBACADBCADBDBCACBDACABDABDCDCBABACDBADCBDACDABCCDABABDCCABDDBCACDBADCABBDCADBACCDABADCBDABCDCABCADBCDBACABDBDACDBACABDCDCBA</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DBCACABDDCBAADCBDCABDCABCADBBCDACADBBCDAACBDBCADDBCAABCDCBDABDCAADCBBDCAADBCCDABCBADCDABCDBABDCADACBCBDADCABBCADADBCACDBDBACCBADDABCABCDACBDADCB</t>
+          <t>CBADDACBADBCCBADACDBDCBACADBCADBDBCACBDACABDABDCDCBABACDBADCBDACDABCCDABABDCCABDDBCACDBADCABBDCADBACCDABADCBDABCDCABCADBCDBACABDBDACDBACABDCDCBA</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CABDCADBBACDADCBACBDCABDDACBDCBABADCADCBCDBACADBADBCCDABADCBCBADCADBBACDCADBDABCACBDDBACDBACCBADCADBCADBBCDAACDBCBDAADBCBCDAACBDDCABBACDCBDABCAD</t>
+          <t>ABCDBCDACBDAABDCCDBACABDDCBAADBCDCBACBADBACDADBCDABCABDCABDCCDABADBCADCBDCABBDACBDCADBCAACDBBDACBDACBADCBADCDABCDBCACBADABDCBDACDCBABACDBACDCADB</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CABDCADBBACDADCBACBDCABDDACBDCBABADCADCBCDBACADBADBCCDABADCBCBADCADBBACDCADBDABCACBDDBACDBACCBADCADBCADBBCDAACDBCBDAADBCBCDAACBDDCABBACDCBDABCAD</t>
+          <t>ABCDBCDACBDAABDCCDBACABDDCBAADBCDCBACBADBACDADBCDABCABDCABDCCDABADBCADCBDCABBDACBDCADBCAACDBBDACBDACBADCBADCDABCDBCACBADABDCBDACDCBABACDBACDCADB</t>
         </is>
       </c>
     </row>

--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -1,37 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\相机开发-Python\bee-box-cameras\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27077134-F730-4F53-83E5-85BEA030452D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>acSn</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>acSn042190120021</t>
+  </si>
+  <si>
+    <t>CBADDACBADBCCBADACDBDCBACADBCADBDBCACBDACABDABDCDCBABACDBADCBDACDABCCDABABDCCABDDBCACDBADCABBDCADBACCDABADCBDABCDCABCADBCDBACABDBDACDBACABDCDCBA</t>
+  </si>
+  <si>
+    <t>acSn042190120034</t>
+  </si>
+  <si>
+    <t>acSn042190120030</t>
+  </si>
+  <si>
+    <t>ABCDBCDACBDAABDCCDBACABDDCBAADBCDCBACBADBACDADBCDABCABDCABDCCDABADBCADCBDCABBDACBDCADBCAACDBBDACBDACBADCBADCDABCDBCACBADABDCBDACDCBABACDBACDCADB</t>
+  </si>
+  <si>
+    <t>acSn042190120026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +103,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,114 +430,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>acSn</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rail</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>turn</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120021</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CBADDACBADBCCBADACDBDCBACADBCADBDBCACBDACABDABDCDCBABACDBADCBDACDABCCDABABDCCABDDBCACDBADCABBDCADBACCDABADCBDABCDCABCADBCDBACABDBDACDBACABDCDCBA</t>
-        </is>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120034</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CBADDACBADBCCBADACDBDCBACADBCADBDBCACBDACABDABDCDCBABACDBADCBDACDABCCDABABDCCABDDBCACDBADCABBDCADBACCDABADCBDABCDCABCADBCDBACABDBDACDBACABDCDCBA</t>
-        </is>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120030</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ABCDBCDACBDAABDCCDBACABDDCBAADBCDCBACBADBACDADBCDABCABDCABDCCDABADBCADCBDCABBDACBDCADBCAACDBBDACBDACBADCBADCDABCDBCACBADABDCBDACDCBABACDBACDCADB</t>
-        </is>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>acSn2023</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ABCDBCDACBDAABDCCDBACABDDCBAADBCDCBACBADBACDADBCDABCABDCABDCCDABADBCADCBDCABBDACBDCADBCAACDBBDACBDACBADCBADCDABCDBCACBADABDCBDACDCBABACDBACDCADB</t>
-        </is>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -1,94 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\相机开发-Python\bee-box-cameras\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27077134-F730-4F53-83E5-85BEA030452D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>acSn</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>acSn042190120021</t>
-  </si>
-  <si>
-    <t>CBADDACBADBCCBADACDBDCBACADBCADBDBCACBDACABDABDCDCBABACDBADCBDACDABCCDABABDCCABDDBCACDBADCABBDCADBACCDABADCBDABCDCABCADBCDBACABDBDACDBACABDCDCBA</t>
-  </si>
-  <si>
-    <t>acSn042190120034</t>
-  </si>
-  <si>
-    <t>acSn042190120030</t>
-  </si>
-  <si>
-    <t>ABCDBCDACBDAABDCCDBACABDDCBAADBCDCBACBADBACDADBCDABCABDCABDCCDABADBCADCBDCABBDACBDCADBCAACDBBDACBDACBADCBADCDABCDBCACBADABDCBDACDCBABACDBACDCADB</t>
-  </si>
-  <si>
-    <t>acSn042190120026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,88 +420,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>acSn</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>rail</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>turn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120021</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ADBCADCBCABDBCDABDCACDABBDACACDBABDCBCDABCADBADCCDABABCDCBADDCBADCABDACBCBDAADBCCDABDCABBDACBACDABDCCBDACBADDCBADBCAADBCCDBAACDBBACDADCBCDABCDAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120034</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ADBCADCBCABDBCDABDCACDABBDACACDBABDCBCDABCADBADCCDABABCDCBADDCBADCABDACBCBDAADBCCDABDCABBDACBACDABDCCBDACBADDCBADBCAADBCCDBAACDBBACDADCBCDABCDAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120030</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BACDACDBCDBABADCDBACDBACBDACDCBACABDDBACABDCDACBBCDAABDCACBDBCDADBACDABCACDBCBADCBDAABDCCADBBCDABACDACDBCBADDCABCDABDCABBCADDBCAADBCDBACDABCDACB</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120026</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BACDACDBCDBABADCDBACDBACBDACDCBACABDDBACABDCDACBBCDAABDCACBDBCDADBACDABCACDBCBADCBDAABDCCADBBCDABACDACDBCBADDCABCDABDCABBCADDBCAADBCDBACDABCDACB</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120033</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CABDCADBCADBBADCDCBACABDCDABDCABADCBBCDACBDABADCDCBADACBABDCACBDBCDAACDBCBADACBDDBACBDACCADBACDBBDACDACBDBACADCBDACBDABCDABCBDCABCADBADCBCDADBAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120043</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CABDCADBCADBBADCDCBACABDCDABDCABADCBBCDACBDABADCDCBADACBABDCACBDBCDAACDBCBADACBDDBACBDACCADBACDBBDACDACBDBACADCBDACBDABCDABCBDCABCADBADCBCDADBAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120047</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BCADACDBACDBDACBCDABABCDBACDCABDBCDADCBADACBBDCAADCBCABDBDCADCBACADBACBDBDACDCABBDCAABDCDABCACBDADCBADBCADBCACDBCBDAABDCCDABCADBBDCACBADDABCBADC</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120007</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BCADACDBACDBDACBCDABABCDBACDCABDBCDADCBADACBBDCAADCBCABDBDCADCBACADBACBDBDACDCABBDCAABDCDABCACBDADCBADBCADBCACDBCBDAABDCCDABCADBBDCACBADDABCBADC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120031</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DACBADBCABCDADBCDCBAADBCCBDADCABBDCABCDADCBACDABBDACADCBBCADCABDCABDDACBABCDCBADDABCACBDADBCADBCABCDADBCCBDAABCDBDACABDCCBADDABCBCDADBACABCDACDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120077</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DACBADBCABCDADBCDCBAADBCCBDADCABBDCABCDADCBACDABBDACADCBBCADCABDCABDDACBABCDCBADDABCACBDADBCADBCABCDADBCCBDAABCDBDACABDCCBADDABCBCDADBACABCDACDB</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -1,37 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\相机开发-Python\bee-box-cameras\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB540F7-562F-47B3-9D63-3E78116CAE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>acSn</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>acSn042190120021</t>
+  </si>
+  <si>
+    <t>ADBCADCBCABDBCDABDCACDABBDACACDBABDCBCDABCADBADCCDABABCDCBADDCBADCABDACBCBDAADBCCDABDCABBDACBACDABDCCBDACBADDCBADBCAADBCCDBAACDBBACDADCBCDABCDAB</t>
+  </si>
+  <si>
+    <t>acSn042190120034</t>
+  </si>
+  <si>
+    <t>acSn042190120030</t>
+  </si>
+  <si>
+    <t>BACDACDBCDBABADCDBACDBACBDACDCBACABDDBACABDCDACBBCDAABDCACBDBCDADBACDABCACDBCBADCBDAABDCCADBBCDABACDACDBCBADDCABCDABDCABBCADDBCAADBCDBACDABCDACB</t>
+  </si>
+  <si>
+    <t>acSn042190120026</t>
+  </si>
+  <si>
+    <t>acSn042190120033</t>
+  </si>
+  <si>
+    <t>CABDCADBCADBBADCDCBACABDCDABDCABADCBBCDACBDABADCDCBADACBABDCACBDBCDAACDBCBADACBDDBACBDACCADBACDBBDACDACBDBACADCBDACBDABCDABCBDCABCADBADCBCDADBAC</t>
+  </si>
+  <si>
+    <t>acSn042190120043</t>
+  </si>
+  <si>
+    <t>acSn042190120047</t>
+  </si>
+  <si>
+    <t>BCADACDBACDBDACBCDABABCDBACDCABDBCDADCBADACBBDCAADCBCABDBDCADCBACADBACBDBDACDCABBDCAABDCDABCACBDADCBADBCADBCACDBCBDAABDCCDABCADBBDCACBADDABCBADC</t>
+  </si>
+  <si>
+    <t>acSn042190120007</t>
+  </si>
+  <si>
+    <t>acSn042190120031</t>
+  </si>
+  <si>
+    <t>DACBADBCABCDADBCDCBAADBCCBDADCABBDCABCDADCBACDABBDACADCBBCADCABDCABDDACBABCDCBADDABCACBDADBCADBCABCDADBCCBDAABCDBDACABDCCBADDABCBCDADBACABCDACDB</t>
+  </si>
+  <si>
+    <t>acSn042051920077</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +130,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,222 +457,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>acSn</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rail</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>turn</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120021</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ADBCADCBCABDBCDABDCACDABBDACACDBABDCBCDABCADBADCCDABABCDCBADDCBADCABDACBCBDAADBCCDABDCABBDACBACDABDCCBDACBADDCBADBCAADBCCDBAACDBBACDADCBCDABCDAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120034</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ADBCADCBCABDBCDABDCACDABBDACACDBABDCBCDABCADBADCCDABABCDCBADDCBADCABDACBCBDAADBCCDABDCABBDACBACDABDCCBDACBADDCBADBCAADBCCDBAACDBBACDADCBCDABCDAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120030</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BACDACDBCDBABADCDBACDBACBDACDCBACABDDBACABDCDACBBCDAABDCACBDBCDADBACDABCACDBCBADCBDAABDCCADBBCDABACDACDBCBADDCABCDABDCABBCADDBCAADBCDBACDABCDACB</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120026</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BACDACDBCDBABADCDBACDBACBDACDCBACABDDBACABDCDACBBCDAABDCACBDBCDADBACDABCACDBCBADCBDAABDCCADBBCDABACDACDBCBADDCABCDABDCABBCADDBCAADBCDBACDABCDACB</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120033</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CABDCADBCADBBADCDCBACABDCDABDCABADCBBCDACBDABADCDCBADACBABDCACBDBCDAACDBCBADACBDDBACBDACCADBACDBBDACDACBDBACADCBDACBDABCDABCBDCABCADBADCBCDADBAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120043</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CABDCADBCADBBADCDCBACABDCDABDCABADCBBCDACBDABADCDCBADACBABDCACBDBCDAACDBCBADACBDDBACBDACCADBACDBBDACDACBDBACADCBDACBDABCDABCBDCABCADBADCBCDADBAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120047</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BCADACDBACDBDACBCDABABCDBACDCABDBCDADCBADACBBDCAADCBCABDBDCADCBACADBACBDBDACDCABBDCAABDCDABCACBDADCBADBCADBCACDBCBDAABDCCDABCADBBDCACBADDABCBADC</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120007</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>BCADACDBACDBDACBCDABABCDBACDCABDBCDADCBADACBBDCAADCBCABDBDCADCBACADBACBDBDACDCABBDCAABDCDABCACBDADCBADBCADBCACDBCBDAABDCCDABCADBBDCACBADDABCBADC</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120031</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DACBADBCABCDADBCDCBAADBCCBDADCABBDCABCDADCBACDABBDACADCBBCADCABDCABDDACBABCDCBADDABCACBDADBCADBCABCDADBCCBDAABCDBDACABDCCBADDABCBCDADBACABCDACDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120077</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DACBADBCABCDADBCDCBAADBCCBDADCABBDCABCDADCBACDABBDACADCBBCADCABDCABDDACBABCDCBADDABCACBDADBCADBCABCDADBCCBDAABCDBDACABDCCBADDABCBCDADBACABCDACDB</t>
-        </is>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -1,121 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\相机开发-Python\bee-box-cameras\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB540F7-562F-47B3-9D63-3E78116CAE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>acSn</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>acSn042190120021</t>
-  </si>
-  <si>
-    <t>ADBCADCBCABDBCDABDCACDABBDACACDBABDCBCDABCADBADCCDABABCDCBADDCBADCABDACBCBDAADBCCDABDCABBDACBACDABDCCBDACBADDCBADBCAADBCCDBAACDBBACDADCBCDABCDAB</t>
-  </si>
-  <si>
-    <t>acSn042190120034</t>
-  </si>
-  <si>
-    <t>acSn042190120030</t>
-  </si>
-  <si>
-    <t>BACDACDBCDBABADCDBACDBACBDACDCBACABDDBACABDCDACBBCDAABDCACBDBCDADBACDABCACDBCBADCBDAABDCCADBBCDABACDACDBCBADDCABCDABDCABBCADDBCAADBCDBACDABCDACB</t>
-  </si>
-  <si>
-    <t>acSn042190120026</t>
-  </si>
-  <si>
-    <t>acSn042190120033</t>
-  </si>
-  <si>
-    <t>CABDCADBCADBBADCDCBACABDCDABDCABADCBBCDACBDABADCDCBADACBABDCACBDBCDAACDBCBADACBDDBACBDACCADBACDBBDACDACBDBACADCBDACBDABCDABCBDCABCADBADCBCDADBAC</t>
-  </si>
-  <si>
-    <t>acSn042190120043</t>
-  </si>
-  <si>
-    <t>acSn042190120047</t>
-  </si>
-  <si>
-    <t>BCADACDBACDBDACBCDABABCDBACDCABDBCDADCBADACBBDCAADCBCABDBDCADCBACADBACBDBDACDCABBDCAABDCDABCACBDADCBADBCADBCACDBCBDAABDCCDABCADBBDCACBADDABCBADC</t>
-  </si>
-  <si>
-    <t>acSn042190120007</t>
-  </si>
-  <si>
-    <t>acSn042190120031</t>
-  </si>
-  <si>
-    <t>DACBADBCABCDADBCDCBAADBCCBDADCABBDCABCDADCBACDABBDACADCBBCADCABDCABDDACBABCDCBADDABCACBDADBCADBCABCDADBCCBDAABCDBDACABDCCBADDABCBCDADBACABCDACDB</t>
-  </si>
-  <si>
-    <t>acSn042051920077</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -130,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,175 +420,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>acSn</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>rail</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>turn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120021</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ADBCCABDACBDBCADBACDACBDCDABADBCCABDCDABADBCBADCCBADABCDACDBADCBACBDADCBACBDBCDAACDBADBCBCADBACDDABCDBACCABDBCDABDACADCBCADBDABCABCDADCBBADCDCBADACBBACDBCDABDACCDBACDBADBCADCABDCABDACBCADBDABCACBDCADBACBDBDACBADCBCDABADCBDACADCBCDABCBADADCBDBACBDCABDCADCABDCABACDBACDBCADBDBACCADBBACDACDBCABDDACBABDCACDBABDCDACBDCABDCABBACDDABCADCBADCBBDCABADCADBCBCDABDCADCABDBCADACBDCABDCBADABCBCADCDABADCBACDBBCDACBDADBCABADCADCBADCBBDACABCDACDBBCDADACBBCDADACBCBDABDCAABDCACDBDCABCDBABACDBADCCDABADBCBCDAADBCABDCADCBBCADBADCCADBBCADABDCDBCAACDBADCBADBCCBDAABDCDBCADBACBACDCABDBACDACBDADCBABDCDABCDCABCBADCBDABDCADCBABCADBADCBCADDCBACBADDBCADABCABDCCABDACDBADCBBDCAACBDBDACDACBABDCADCBADCBCDABCDBAACDBBDCADCBACDBAADBCBADCBCADDABCCDBAABCDDACBCDABDCABDBACABCDCBDABADCABDCBACDACBDCDBABACDBDCADABCBADCADCBADCBCDBADCAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120034</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ADBCCABDACBDBCADBACDACBDCDABADBCCABDCDABADBCBADCCBADABCDACDBADCBACBDADCBACBDBCDAACDBADBCBCADBACDDABCDBACCABDBCDABDACADCBCADBDABCABCDADCBBADCDCBADACBBACDBCDABDACCDBACDBADBCADCABDCABDACBCADBDABCACBDCADBACBDBDACBADCBCDABADCBDACADCBCDABCBADADCBDBACBDCABDCADCABDCABACDBACDBCADBDBACCADBBACDACDBCABDDACBABDCACDBABDCDACBDCABDCABBACDDABCADCBADCBBDCABADCADBCBCDABDCADCABDBCADACBDCABDCBADABCBCADCDABADCBACDBBCDACBDADBCABADCADCBADCBBDACABCDACDBBCDADACBBCDADACBCBDABDCAABDCACDBDCABCDBABACDBADCCDABADBCBCDAADBCABDCADCBBCADBADCCADBBCADABDCDBCAACDBADCBADBCCBDAABDCDBCADBACBACDCABDBACDACBDADCBABDCDABCDCABCBADCBDABDCADCBABCADBADCBCADDCBACBADDBCADABCABDCCABDACDBADCBBDCAACBDBDACDACBABDCADCBADCBCDABCDBAACDBBDCADCBACDBAADBCBADCBCADDABCCDBAABCDDACBCDABDCABDBACABCDCBDABADCABDCBACDACBDCDBABACDBDCADABCBADCADCBADCBCDBADCAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120030</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CDABCBDADCBACABDBACDABCDCBDADCBACDABBCADBADCACDBCABDCABDCBDABCDADBACBDCABADCACDBBCDABACDACBDADCBACDBCBADDBACCDBADBACBADCABDCADBCDCBABCDABCDACABDABCDABDCACBDBCDABCADCADBBDCAABDCDABCDABCCABDBDCABACDCDABBCADBACDABCDADCBBDCACADBABCDCDABBADCDCBAABDCCADBBDACBACDBDCAADCBCABDCDABACDBDCBACDABCDABBDACBACDACDBCDABCBADDBACDACBDABCABCDDACBBDACABDCBDCADACBCBADBDACDBCAABDCCBADBDCAABDCABCDACBDCADBBDACABDCABDCADCBACDBCDBAADCBCBDACBDABACDCADBCDBABCADBCADBADCBACDADBCBACDDACBBCADCADBDABCDABCCDBACBADBDCABACDCBDADCABABCDACDBBADCBDCAADCBDABCACDBCABDCDBAABCDCDABCBDABACDDBACCDBACDBADABCCABDCDABDCBAABCDACDBBCDABADCABCDCBDABCDABCADBACDDBCABDCADABCCABDABDCBDACABDCCABDDACBCBADCABDACDBADBCCADBDCBABCDACDABABCDBDCACBADDCBABDACCBDACBADBADCADCBCABDBCDADACBDCABDBACCADBADCBDCABBDACCBADCDBABACDDCBABDACADCBABCDDABCCBADABDCBDAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120026</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CDABCBDADCBACABDBACDABCDCBDADCBACDABBCADBADCACDBCABDCABDCBDABCDADBACBDCABADCACDBBCDABACDACBDADCBACDBCBADDBACCDBADBACBADCABDCADBCDCBABCDABCDACABDABCDABDCACBDBCDABCADCADBBDCAABDCDABCDABCCABDBDCABACDCDABBCADBACDABCDADCBBDCACADBABCDCDABBADCDCBAABDCCADBBDACBACDBDCAADCBCABDCDABACDBDCBACDABCDABBDACBACDACDBCDABCBADDBACDACBDABCABCDDACBBDACABDCBDCADACBCBADBDACDBCAABDCCBADBDCAABDCABCDACBDCADBBDACABDCABDCADCBACDBCDBAADCBCBDACBDABACDCADBCDBABCADBCADBADCBACDADBCBACDDACBBCADCADBDABCDABCCDBACBADBDCABACDCBDADCABABCDACDBBADCBDCAADCBDABCACDBCABDCDBAABCDCDABCBDABACDDBACCDBACDBADABCCABDCDABDCBAABCDACDBBCDABADCABCDCBDABCDABCADBACDDBCABDCADABCCABDABDCBDACABDCCABDDACBCBADCABDACDBADBCCADBDCBABCDACDABABCDBDCACBADDCBABDACCBDACBADBADCADCBCABDBCDADACBDCABDBACCADBADCBDCABBDACCBADCDBABACDDCBABDACADCBABCDDABCCBADABDCBDAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120033</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DCABABCDBCADADCBADCBCDABBCADBCADBDCAADCBACBDADBCADCBACDBDCBAACDBBCDADBCADCABDCABBADCCADBABDCBDCADCABBCDACBDACBDABCADCBDAADCBDCABABCDCDBADABCADBCBCDADABCDBCACDBACBDAABDCDCBADBCACDBADCABCBADBADCBACDDBCADCABDACBDCBAABCDCBDABADCACBDCABDABCDBCADBDACABCDBADCABDCCDBAACDBDBCACBDABCADCBADABCDBCDACABDADBCDBACBACDDBACDBACDBCABCDABADCDBACBADCABDCDBACCDBABDCABDCAADBCBACDABCDDABCABCDABCDBACDDACBDACBDACBBDACDCBABADCBADCCABDDACBADCBBDACCABDBADCABDCACDBACDBBADCDCBABCDABADCABCDDABCBADCADBCACBDDBCAADCBCDBAADBCDACBBDACABDCABCDABCDABCDBDCADABCCBADDACBCDABCDABDBACADBCADBCDACBABDCCADBBADCADBCABCDBCADDCABDBACDCABDBACBCADACDBDBACABDCABCDCBDABCADBCDADACBBDCADBACCBADBDACBACDDCABDABCDBCADBCABACDCDBADBACDABCBADCDBACDBCAABCDDACBABDCBDCADCABADBCDCBABDACACDBACBDADCBBCADDCBABADCCBADCBADCABDACBDADBCACDBCDABCDBACADBCDBADABC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120043</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DCABABCDBCADADCBADCBCDABBCADBCADBDCAADCBACBDADBCADCBACDBDCBAACDBBCDADBCADCABDCABBADCCADBABDCBDCADCABBCDACBDACBDABCADCBDAADCBDCABABCDCDBADABCADBCBCDADABCDBCACDBACBDAABDCDCBADBCACDBADCABCBADBADCBACDDBCADCABDACBDCBAABCDCBDABADCACBDCABDABCDBCADBDACABCDBADCABDCCDBAACDBDBCACBDABCADCBADABCDBCDACABDADBCDBACBACDDBACDBACDBCABCDABADCDBACBADCABDCDBACCDBABDCABDCAADBCBACDABCDDABCABCDABCDBACDDACBDACBDACBBDACDCBABADCBADCCABDDACBADCBBDACCABDBADCABDCACDBACDBBADCDCBABCDABADCABCDDABCBADCADBCACBDDBCAADCBCDBAADBCDACBBDACABDCABCDABCDABCDBDCADABCCBADDACBCDABCDABDBACADBCADBCDACBABDCCADBBADCADBCABCDBCADDCABDBACDCABDBACBCADACDBDBACABDCABCDCBDABCADBCDADACBBDCADBACCBADBDACBACDDCABDABCDBCADBCABACDCDBADBACDABCBADCDBACDBCAABCDDACBABDCBDCADCABADBCDCBABDACACDBACBDADCBBCADDCBABADCCBADCBADCABDACBDADBCACDBCDABCDBACADBCDBADABC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120047</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ADBCBACDDCBAACDBADBCBCADCABDCADBBACDBDACDACBCDABBCDADABCCDBADCABACBDACBDCBDACBADACDBBADCDBCABACDCBDAADBCCDBABACDCBDACDBABDCABDACADBCDCABBADCBACDDABCDACBDCBABACDCADBBACDBDCACBADDACBCADBBDACDACBDACBDACBABCDDBCAADCBDABCBDACDCBADABCDBACDBCADBACBACDDCBADACBDCABADBCBACDBACDBCADDACBADBCBCADCABDADCBCADBACBDDCBADBACCABDBADCADCBACDBADBCADCBDBCAABCDADCBBDACBCDABACDDCBAACDBBCDAADCBBDACDBCADCBABACDCADBBCADDCBABDCAABCDABDCDCBAADCBABDCBDCADACBADBCACBDABCDBADCDBCABDCABCDADCABDACBABDCDBACDCBAACDBCDBADABCDACBCABDBADCADCBBDACCABDCDABDBACABDCDABCACDBBADCADCBDABCABDCDBCACADBDACBBCADBCADCBDABCADDCABCADBBCDACABDABDCDBACABDCDBACADCBABCDACBDCBDADCBAABDCBCDAADBCACDBBADCADBCACBDCBADABDCACBDABDCCBDACBADCADBDBACBDACADCBCABDCBDACBDABDCABCADCDABDBCAABCDBDACDCBADABCDBCACBADCBDABADCABDCDABCDABCDABCACBDCBDAABCDACDBBDCABACD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120007</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ADBCBACDDCBAACDBADBCBCADCABDCADBBACDBDACDACBCDABBCDADABCCDBADCABACBDACBDCBDACBADACDBBADCDBCABACDCBDAADBCCDBABACDCBDACDBABDCABDACADBCDCABBADCBACDDABCDACBDCBABACDCADBBACDBDCACBADDACBCADBBDACDACBDACBDACBABCDDBCAADCBDABCBDACDCBADABCDBACDBCADBACBACDDCBADACBDCABADBCBACDBACDBCADDACBADBCBCADCABDADCBCADBACBDDCBADBACCABDBADCADCBACDBADBCADCBDBCAABCDADCBBDACBCDABACDDCBAACDBBCDAADCBBDACDBCADCBABACDCADBBCADDCBABDCAABCDABDCDCBAADCBABDCBDCADACBADBCACBDABCDBADCDBCABDCABCDADCABDACBABDCDBACDCBAACDBCDBADABCDACBCABDBADCADCBBDACCABDCDABDBACABDCDABCACDBBADCADCBDABCABDCDBCACADBDACBBCADBCADCBDABCADDCABCADBBCDACABDABDCDBACABDCDBACADCBABCDACBDCBDADCBAABDCBCDAADBCACDBBADCADBCACBDCBADABDCACBDABDCCBDACBADCADBDBACBDACADCBCABDCBDACBDABDCABCADCDABDBCAABCDBDACDCBADABCDBCACBADCBDABADCABDCDABCDABCDABCACBDCBDAABCDACDBBDCABACD</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120031</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CABDBCADCDABDBCAADBCADCBBCDACADBACDBDBACABDCCABDBACDDCBACADBDABCDCBACDBADBACADCBDBACBCADBCADCADBDBCAABDCBDACADCBACDBDCABABDCDABCBDCABCDACADBDCBADBACCDBADACBBDACBDCAADBCADCBDBCADCABCADBDCABDACBADBCBACDDBACCADBACDBCABDCBADCADBDBACCBDAACBDACDBACBDDCABBADCCBDACBADABDCDBACDCBAADBCBACDCDABCDABACBDBDACBACDDBACBCADCADBBACDBCADCABDBACDCABDBCADCBDACDBADCABCABDDCABACDBDBACADBCBDACBCDAADBCABCDACBDCDABBADCBCADBADCCDBACDABCDBABDACBACDADBCDCBAACDBDACBCBDACBDACDBAABDCBADCABCDBDACDABCABCDACDBCADBCDABCBDACBADADBCDACBACBDCBADDBCADBCABADCADCBACBDACDBDABCCDBACBADDCBAABDCCDBAABDCACDBCDBADACBDABCCDABDACBBADCBDCAADBCADCBBADCADCBABDCBDCACABDBACDCADBABDCBDACBACDABDCCDABDBCADCBAABCDADBCCBDABACDBACDDCABDCBAACDBBACDCDBADACBDCABADBCCDABDCABBADCACDBDACBCBADDCABDBCAADBCBACDBCADDBACCBDACDABDCBAABDCCDBACDBADABCDBACACBDCADB</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>acSn042051920077</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CABDBCADCDABDBCAADBCADCBBCDACADBACDBDBACABDCCABDBACDDCBACADBDABCDCBACDBADBACADCBDBACBCADBCADCADBDBCAABDCBDACADCBACDBDCABABDCDABCBDCABCDACADBDCBADBACCDBADACBBDACBDCAADBCADCBDBCADCABCADBDCABDACBADBCBACDDBACCADBACDBCABDCBADCADBDBACCBDAACBDACDBACBDDCABBADCCBDACBADABDCDBACDCBAADBCBACDCDABCDABACBDBDACBACDDBACBCADCADBBACDBCADCABDBACDCABDBCADCBDACDBADCABCABDDCABACDBDBACADBCBDACBCDAADBCABCDACBDCDABBADCBCADBADCCDBACDABCDBABDACBACDADBCDCBAACDBDACBCBDACBDACDBAABDCBADCABCDBDACDABCABCDACDBCADBCDABCBDACBADADBCDACBACBDCBADDBCADBCABADCADCBACBDACDBDABCCDBACBADDCBAABDCCDBAABDCACDBCDBADACBDABCCDABDACBBADCBDCAADBCADCBBADCADCBABDCBDCACABDBACDCADBABDCBDACBACDABDCCDABDBCADCBAABCDADBCCBDABACDBACDDCABDCBAACDBBACDCDBADACBDCABADBCCDABDCABBADCACDBDACBCBADDCABDBCAADBCBACDBCADDBACCBDACDABDCBAABDCCDBACDBADABCDBACACBDCADB</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ADBCCABDACBDBCADBACDACBDCDABADBCCABDCDABADBCBADCCBADABCDACDBADCBACBDADCBACBDBCDAACDBADBCBCADBACDDABCDBACCABDBCDABDACADCBCADBDABCABCDADCBBADCDCBADACBBACDBCDABDACCDBACDBADBCADCABDCABDACBCADBDABCACBDCADBACBDBDACBADCBCDABADCBDACADCBCDABCBADADCBDBACBDCABDCADCABDCABACDBACDBCADBDBACCADBBACDACDBCABDDACBABDCACDBABDCDACBDCABDCABBACDDABCADCBADCBBDCABADCADBCBCDABDCADCABDBCADACBDCABDCBADABCBCADCDABADCBACDBBCDACBDADBCABADCADCBADCBBDACABCDACDBBCDADACBBCDADACBCBDABDCAABDCACDBDCABCDBABACDBADCCDABADBCBCDAADBCABDCADCBBCADBADCCADBBCADABDCDBCAACDBADCBADBCCBDAABDCDBCADBACBACDCABDBACDACBDADCBABDCDABCDCABCBADCBDABDCADCBABCADBADCBCADDCBACBADDBCADABCABDCCABDACDBADCBBDCAACBDBDACDACBABDCADCBADCBCDABCDBAACDBBDCADCBACDBAADBCBADCBCADDABCCDBAABCDDACBCDABDCABDBACABCDCBDABADCABDCBACDACBDCDBABACDBDCADABCBADCADCBADCBCDBADCAB</t>
+          <t>DCEABBACEDDECABEABDCCAEDBCAEDBBDACEBECADEADCBADEBCABCEDCDAEBEBCADDCAEBAEDBCCBEADADEBCCDEABDECBAECBDAEDCABEABCDBECADAEDBCDABECDECBAABCDEADECBBEACDAEBDCEDBACECABDBADECEACBDEDBACDCEBAABEDCDCBEACEADBEBDACAEDBCBEACDEACBDCBDAEBECDAEBADCADBECADCBEBDCAEBECDACBEADECABDCDBAEACDBEECADBDBECACEDABABDCEDEBACDABCECABDEBCEDADECBACEDABBDCAECABEDCABEDECADBCADEBDBCAEECDBAEABCDCDEABADCEBBEADCBDACEEDACBEDABCBAECDCDEBADEBCAEDCBACEADBDAEBCEDBACCAEDBECBADACBDECADEBBEACDBAEDCBCDAEEBACDABCDEEDBACBAECDBDCEAACBEDBECADECADBBAEDCADECBECDABCBEADDECABBAECDCABDEEDBACCDBAEDBCEACEDBADAECBBEADCEABCDDBCAEEBDCAACEDBCBDAEBCDEADECABBADECEBDCAACDBEAEBCDDCAEBABCDEABEDCEDBCAEDCABCBEDADEACBDCAEBAECDBCEDBADEACBEACBDBDACEACEBDDEBCABEADCEACBDECABDCBDEACADBEABCEDEDCBAADECBABCEDEBDACECDABDCEBAEDCABACDEBEBDCAAEBDCCBADEADBECBADECAEDBCBCAEDDCAEBCADEBDBEACCBAEDABDCEDBAECCABDECEADBCAEBDABECDDACEBEDACBDBECADABECECBDABDECACBAEDEDABCECBDAADECBCDBEAADECBCEBDABEDACBCEDACAEBDCEABDCDEABCDAEBCDABECBDAECABEDCBEDADEBCACEBADCADEBACBDEECDABDEBACEADCBCBADEEDCBACEBADEDABCADBCEDCEABEDBCAECDBAABDCEEADCBDCABEBDEACDACBEEACDBBDCEACDEBACADBEEABCDACEDBCBAEDCBAEDCBAEDECBDABEDCACEBDAABCDEEBCADDBCAECDBAEEDCBADEABCDBAECEACDBEACBDBDECAECADBDCAEBADBCECABEDBDACECEABDEDACBACBDEDBECACEBDAECDBAACDBEEBDACECBADDEABCCBAEDABCDE</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ADBCCABDACBDBCADBACDACBDCDABADBCCABDCDABADBCBADCCBADABCDACDBADCBACBDADCBACBDBCDAACDBADBCBCADBACDDABCDBACCABDBCDABDACADCBCADBDABCABCDADCBBADCDCBADACBBACDBCDABDACCDBACDBADBCADCABDCABDACBCADBDABCACBDCADBACBDBDACBADCBCDABADCBDACADCBCDABCBADADCBDBACBDCABDCADCABDCABACDBACDBCADBDBACCADBBACDACDBCABDDACBABDCACDBABDCDACBDCABDCABBACDDABCADCBADCBBDCABADCADBCBCDABDCADCABDBCADACBDCABDCBADABCBCADCDABADCBACDBBCDACBDADBCABADCADCBADCBBDACABCDACDBBCDADACBBCDADACBCBDABDCAABDCACDBDCABCDBABACDBADCCDABADBCBCDAADBCABDCADCBBCADBADCCADBBCADABDCDBCAACDBADCBADBCCBDAABDCDBCADBACBACDCABDBACDACBDADCBABDCDABCDCABCBADCBDABDCADCBABCADBADCBCADDCBACBADDBCADABCABDCCABDACDBADCBBDCAACBDBDACDACBABDCADCBADCBCDABCDBAACDBBDCADCBACDBAADBCBADCBCADDABCCDBAABCDDACBCDABDCABDBACABCDCBDABADCABDCBACDACBDCDBABACDBDCADABCBADCADCBADCBCDBADCAB</t>
+          <t>DCEABBACEDDECABEABDCCAEDBCAEDBBDACEBECADEADCBADEBCABCEDCDAEBEBCADDCAEBAEDBCCBEADADEBCCDEABDECBAECBDAEDCABEABCDBECADAEDBCDABECDECBAABCDEADECBBEACDAEBDCEDBACECABDBADECEACBDEDBACDCEBAABEDCDCBEACEADBEBDACAEDBCBEACDEACBDCBDAEBECDAEBADCADBECADCBEBDCAEBECDACBEADECABDCDBAEACDBEECADBDBECACEDABABDCEDEBACDABCECABDEBCEDADECBACEDABBDCAECABEDCABEDECADBCADEBDBCAEECDBAEABCDCDEABADCEBBEADCBDACEEDACBEDABCBAECDCDEBADEBCAEDCBACEADBDAEBCEDBACCAEDBECBADACBDECADEBBEACDBAEDCBCDAEEBACDABCDEEDBACBAECDBDCEAACBEDBECADECADBBAEDCADECBECDABCBEADDECABBAECDCABDEEDBACCDBAEDBCEACEDBADAECBBEADCEABCDDBCAEEBDCAACEDBCBDAEBCDEADECABBADECEBDCAACDBEAEBCDDCAEBABCDEABEDCEDBCAEDCABCBEDADEACBDCAEBAECDBCEDBADEACBEACBDBDACEACEBDDEBCABEADCEACBDECABDCBDEACADBEABCEDEDCBAADECBABCEDEBDACECDABDCEBAEDCABACDEBEBDCAAEBDCCBADEADBECBADECAEDBCBCAEDDCAEBCADEBDBEACCBAEDABDCEDBAECCABDECEADBCAEBDABECDDACEBEDACBDBECADABECECBDABDECACBAEDEDABCECBDAADECBCDBEAADECBCEBDABEDACBCEDACAEBDCEABDCDEABCDAEBCDABECBDAECABEDCBEDADEBCACEBADCADEBACBDEECDABDEBACEADCBCBADEEDCBACEBADEDABCADBCEDCEABEDBCAECDBAABDCEEADCBDCABEBDEACDACBEEACDBBDCEACDEBACADBEEABCDACEDBCBAEDCBAEDCBAEDECBDABEDCACEBDAABCDEEBCADDBCAECDBAEEDCBADEABCDBAECEACDBEACBDBDECAECADBDCAEBADBCECABEDBDACECEABDEDACBACBDEDBECACEBDAECDBAACDBEEBDACECBADDEABCCBAEDABCDE</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CDABCBDADCBACABDBACDABCDCBDADCBACDABBCADBADCACDBCABDCABDCBDABCDADBACBDCABADCACDBBCDABACDACBDADCBACDBCBADDBACCDBADBACBADCABDCADBCDCBABCDABCDACABDABCDABDCACBDBCDABCADCADBBDCAABDCDABCDABCCABDBDCABACDCDABBCADBACDABCDADCBBDCACADBABCDCDABBADCDCBAABDCCADBBDACBACDBDCAADCBCABDCDABACDBDCBACDABCDABBDACBACDACDBCDABCBADDBACDACBDABCABCDDACBBDACABDCBDCADACBCBADBDACDBCAABDCCBADBDCAABDCABCDACBDCADBBDACABDCABDCADCBACDBCDBAADCBCBDACBDABACDCADBCDBABCADBCADBADCBACDADBCBACDDACBBCADCADBDABCDABCCDBACBADBDCABACDCBDADCABABCDACDBBADCBDCAADCBDABCACDBCABDCDBAABCDCDABCBDABACDDBACCDBACDBADABCCABDCDABDCBAABCDACDBBCDABADCABCDCBDABCDABCADBACDDBCABDCADABCCABDABDCBDACABDCCABDDACBCBADCABDACDBADBCCADBDCBABCDACDABABCDBDCACBADDCBABDACCBDACBADBADCADCBCABDBCDADACBDCABDBACCADBADCBDCABBDACCBADCDBABACDDCBABDACADCBABCDDABCCBADABDCBDAC</t>
+          <t>BDCEACDEBAAEDCBEDABCEBACDCABEDBECADBACEDAECDBDEBACABCDEACEDBDABECBADECECABDBADCEBDACEAEBDCDACBEDCBAEDECBAAECDBCEBADCABDECDBEAABECDEADCBEDCABEBDCACEABDECDABBADECBDEACEADCBECADBADCEBADBCEBCAEDBCADECAEDBAECBDCADEBADEBCDACEBBDAECBCADEDACBEDBCEADCAEBECDBAAECBDECDABDCEABECABDAEBDCACBEDABEDCADBECDBEACADECBDABCEDBCEAEBCADABEDCBACDEBEDACBDEACBDEACCADEBBCAEDEACDBBDECACADEBBADCEDBECAACEBDACEDBBECADADCBEAEBDCECABDCEABDECBADCDBAEAEDCBABCEDACBEDCEBDADABECDCABECADBEDECABBDAECEDABCCDAEBDEBACDCEBAEBDACCDABEDCEABBACEDDEACBABEDCEDBACDECBACDAEBDABECDACBEECADBADECBDCBEADCEABAEDCBEABCDEBADCACBEDAECDBDEBACEDCBADBECAECADBCEDBADABECDECABCDBAEDCAEBAECDBCADBEBCEDACAEBDAEBCDCBDAECEABDEBDACAECDBBDCEABDCEADCEBAACDEBDEBCAADEBCADBCEDBECABCAEDAEDCBACDBEAECBDBADECCDBEABDACEACDBEBCADEBCAEDDACBECBDEACAEBDBAECDEDABCCEBDAEBACDCADEBBCEDAEACBDABCDEBECDAACDBECDBEABAEDCDCAEBADBCEADEBCBCADECDBAEAEBDCCEDABECADBCBDEABAEDCBCEDABDEACDACBEBADCECBADEBACDEEBADCCBEDAAECDBEDBACBADECDEBCAECDABBDCEACDEBACDEBAEBCDAABEDCDBCEAEACDBBACEDADBCEEBADCEACBDAEBDCAEDBCCEDABADEBCECBDACAEBDCEBDAADBECBCEADBDECAEBDACEBDCAECABDBDCEACEDABADCBEDACEBADBCECDEABEBACDEACBDEBDACBDECAEDCBAACDEBCBAEDABCDEECBADEABCDECBADDEBCAABDECEDACBADBCECEBADADCBECBDAEECABDEDCBADEBCABECADAEBDCCEDABABDECEABDCACDBEDCEABDCBEADABCECABDE</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CDABCBDADCBACABDBACDABCDCBDADCBACDABBCADBADCACDBCABDCABDCBDABCDADBACBDCABADCACDBBCDABACDACBDADCBACDBCBADDBACCDBADBACBADCABDCADBCDCBABCDABCDACABDABCDABDCACBDBCDABCADCADBBDCAABDCDABCDABCCABDBDCABACDCDABBCADBACDABCDADCBBDCACADBABCDCDABBADCDCBAABDCCADBBDACBACDBDCAADCBCABDCDABACDBDCBACDABCDABBDACBACDACDBCDABCBADDBACDACBDABCABCDDACBBDACABDCBDCADACBCBADBDACDBCAABDCCBADBDCAABDCABCDACBDCADBBDACABDCABDCADCBACDBCDBAADCBCBDACBDABACDCADBCDBABCADBCADBADCBACDADBCBACDDACBBCADCADBDABCDABCCDBACBADBDCABACDCBDADCABABCDACDBBADCBDCAADCBDABCACDBCABDCDBAABCDCDABCBDABACDDBACCDBACDBADABCCABDCDABDCBAABCDACDBBCDABADCABCDCBDABCDABCADBACDDBCABDCADABCCABDABDCBDACABDCCABDDACBCBADCABDACDBADBCCADBDCBABCDACDABABCDBDCACBADDCBABDACCBDACBADBADCADCBCABDBCDADACBDCABDBACCADBADCBDCABBDACCBADCDBABACDDCBABDACADCBABCDDABCCBADABDCBDAC</t>
+          <t>BDCEACDEBAAEDCBEDABCEBACDCABEDBECADBACEDAECDBDEBACABCDEACEDBDABECBADECECABDBADCEBDACEAEBDCDACBEDCBAEDECBAAECDBCEBADCABDECDBEAABECDEADCBEDCABEBDCACEABDECDABBADECBDEACEADCBECADBADCEBADBCEBCAEDBCADECAEDBAECBDCADEBADEBCDACEBBDAECBCADEDACBEDBCEADCAEBECDBAAECBDECDABDCEABECABDAEBDCACBEDABEDCADBECDBEACADECBDABCEDBCEAEBCADABEDCBACDEBEDACBDEACBDEACCADEBBCAEDEACDBBDECACADEBBADCEDBECAACEBDACEDBBECADADCBEAEBDCECABDCEABDECBADCDBAEAEDCBABCEDACBEDCEBDADABECDCABECADBEDECABBDAECEDABCCDAEBDEBACDCEBAEBDACCDABEDCEABBACEDDEACBABEDCEDBACDECBACDAEBDABECDACBEECADBADECBDCBEADCEABAEDCBEABCDEBADCACBEDAECDBDEBACEDCBADBECAECADBCEDBADABECDECABCDBAEDCAEBAECDBCADBEBCEDACAEBDAEBCDCBDAECEABDEBDACAECDBBDCEABDCEADCEBAACDEBDEBCAADEBCADBCEDBECABCAEDAEDCBACDBEAECBDBADECCDBEABDACEACDBEBCADEBCAEDDACBECBDEACAEBDBAECDEDABCCEBDAEBACDCADEBBCEDAEACBDABCDEBECDAACDBECDBEABAEDCDCAEBADBCEADEBCBCADECDBAEAEBDCCEDABECADBCBDEABAEDCBCEDABDEACDACBEBADCECBADEBACDEEBADCCBEDAAECDBEDBACBADECDEBCAECDABBDCEACDEBACDEBAEBCDAABEDCDBCEAEACDBBACEDADBCEEBADCEACBDAEBDCAEDBCCEDABADEBCECBDACAEBDCEBDAADBECBCEADBDECAEBDACEBDCAECABDBDCEACEDABADCBEDACEBADBCECDEABEBACDEACBDEBDACBDECAEDCBAACDEBCBAEDABCDEECBADEABCDECBADDEBCAABDECEDACBADBCECEBADADCBECBDAEECABDEDCBADEBCABECADAEBDCCEDABABDECEABDCACDBEDCEABDCBEADABCECABDE</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DCABABCDBCADADCBADCBCDABBCADBCADBDCAADCBACBDADBCADCBACDBDCBAACDBBCDADBCADCABDCABBADCCADBABDCBDCADCABBCDACBDACBDABCADCBDAADCBDCABABCDCDBADABCADBCBCDADABCDBCACDBACBDAABDCDCBADBCACDBADCABCBADBADCBACDDBCADCABDACBDCBAABCDCBDABADCACBDCABDABCDBCADBDACABCDBADCABDCCDBAACDBDBCACBDABCADCBADABCDBCDACABDADBCDBACBACDDBACDBACDBCABCDABADCDBACBADCABDCDBACCDBABDCABDCAADBCBACDABCDDABCABCDABCDBACDDACBDACBDACBBDACDCBABADCBADCCABDDACBADCBBDACCABDBADCABDCACDBACDBBADCDCBABCDABADCABCDDABCBADCADBCACBDDBCAADCBCDBAADBCDACBBDACABDCABCDABCDABCDBDCADABCCBADDACBCDABCDABDBACADBCADBCDACBABDCCADBBADCADBCABCDBCADDCABDBACDCABDBACBCADACDBDBACABDCABCDCBDABCADBCDADACBBDCADBACCBADBDACBACDDCABDABCDBCADBCABACDCDBADBACDABCBADCDBACDBCAABCDDACBABDCBDCADCABADBCDCBABDACACDBACBDADCBBCADDCBABADCCBADCBADCABDACBDADBCACDBCDABCDBACADBCDBADABC</t>
+          <t>EABDCDEBCAEADBCEDCBACDBEADBCEACBEADBCDEACEADBABDCEECDABEDACBACEBDDAECBEBADCEACBDBCAEDABDCEBCDEAEBDACDCEABABEDCCAEBDDBCEAAECBDCBADEDECBAABDECEABDCCAEDBADBCEEADCBBCEADDCBEABECADEACBDEDABCACEDBCABDECBDAEAECDBCAEBDEBCDAACDEBDBCAEAEBCDEDCBAACEBDCBADEBAEDCECDBADEBCAEABCDAEBCDACBEDACBDECEDABEBACDBEACDACDBEBAEDCBDCAECEBADDBECADACEBDCEBAADEBCCEBDACBADECEDBABCAEDDAECBEADBCCDEBADBCEAADBCEAEDBCBEDCACEDBACDBAECAEBDDACBEBDCAEADBECCBEADCBEDABDAECBCEADBCEDABCDAECADBEEABCDDEBACABEDCAEDCBDAECBCBEADCABDECADBEEADCBEBACDEBCADBCEADABECDCEDBABDACEDBCEAEDABCEACDBBCEADDCBEACEDBAACDBEADBECADCEBBEDACACEBDBDECAABCDEDBCAEBDEACBACDECBDEAEBCADDCEBAADCEBABCEDBAEDCBDEACEBADCBCDEACEABDEADBCCDBAEADECBCADBECDEBADACBEEDCABCDEABCAEDBEBADCECBDAECDABDCEBADCBAEEBADCECADBBCDAEBACEDDEABCCDBEADCBEAADECBAEDCBCEDABEADCBDBAECCDABEEADCBDCEBACDAEBCAEDBBCADEBAECDCAEDBABEDCDACBEBDAECECBDAECADBAECBDDBECADCBEAACDBEDBCAEDAECBEABCDABECDDACEBBCDAECDAEBCAEBDABDCEBACDEDBACEBDACECEDABCEADBABEDCCBADEAECDBDAEBCDCAEBDAECBDCAEBDCABECABDEEADCBECABDCABEDDEBCAADECBBCDAEACEDBCDBEAAEDCBECADBDBEACEACBDADEBCCEBADBAECDCADEBABECDCDEBAABCDEECBDAAEDBCCABEDDBAECACDBEADCBECBEDADAECBAEDCBADCEBAEBDCCABDEACBEDEDCABECDABBDECACADEBCAEBDBDECAADCBEABCEDBDCEAACDBEABCEDACBDECADEBCEDABDABECEDABCBACEDBCDAEBCEADCDBEAEABDCCEDBA</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DCABABCDBCADADCBADCBCDABBCADBCADBDCAADCBACBDADBCADCBACDBDCBAACDBBCDADBCADCABDCABBADCCADBABDCBDCADCABBCDACBDACBDABCADCBDAADCBDCABABCDCDBADABCADBCBCDADABCDBCACDBACBDAABDCDCBADBCACDBADCABCBADBADCBACDDBCADCABDACBDCBAABCDCBDABADCACBDCABDABCDBCADBDACABCDBADCABDCCDBAACDBDBCACBDABCADCBADABCDBCDACABDADBCDBACBACDDBACDBACDBCABCDABADCDBACBADCABDCDBACCDBABDCABDCAADBCBACDABCDDABCABCDABCDBACDDACBDACBDACBBDACDCBABADCBADCCABDDACBADCBBDACCABDBADCABDCACDBACDBBADCDCBABCDABADCABCDDABCBADCADBCACBDDBCAADCBCDBAADBCDACBBDACABDCABCDABCDABCDBDCADABCCBADDACBCDABCDABDBACADBCADBCDACBABDCCADBBADCADBCABCDBCADDCABDBACDCABDBACBCADACDBDBACABDCABCDCBDABCADBCDADACBBDCADBACCBADBDACBACDDCABDABCDBCADBCABACDCDBADBACDABCBADCDBACDBCAABCDDACBABDCBDCADCABADBCDCBABDACACDBACBDADCBBCADDCBABADCCBADCBADCABDACBDADBCACDBCDABCDBACADBCDBADABC</t>
+          <t>EABDCDEBCAEADBCEDCBACDBEADBCEACBEADBCDEACEADBABDCEECDABEDACBACEBDDAECBEBADCEACBDBCAEDABDCEBCDEAEBDACDCEABABEDCCAEBDDBCEAAECBDCBADEDECBAABDECEABDCCAEDBADBCEEADCBBCEADDCBEABECADEACBDEDABCACEDBCABDECBDAEAECDBCAEBDEBCDAACDEBDBCAEAEBCDEDCBAACEBDCBADEBAEDCECDBADEBCAEABCDAEBCDACBEDACBDECEDABEBACDBEACDACDBEBAEDCBDCAECEBADDBECADACEBDCEBAADEBCCEBDACBADECEDBABCAEDDAECBEADBCCDEBADBCEAADBCEAEDBCBEDCACEDBACDBAECAEBDDACBEBDCAEADBECCBEADCBEDABDAECBCEADBCEDABCDAECADBEEABCDDEBACABEDCAEDCBDAECBCBEADCABDECADBEEADCBEBACDEBCADBCEADABECDCEDBABDACEDBCEAEDABCEACDBBCEADDCBEACEDBAACDBEADBECADCEBBEDACACEBDBDECAABCDEDBCAEBDEACBACDECBDEAEBCADDCEBAADCEBABCEDBAEDCBDEACEBADCBCDEACEABDEADBCCDBAEADECBCADBECDEBADACBEEDCABCDEABCAEDBEBADCECBDAECDABDCEBADCBAEEBADCECADBBCDAEBACEDDEABCCDBEADCBEAADECBAEDCBCEDABEADCBDBAECCDABEEADCBDCEBACDAEBCAEDBBCADEBAECDCAEDBABEDCDACBEBDAECECBDAECADBAECBDDBECADCBEAACDBEDBCAEDAECBEABCDABECDDACEBBCDAECDAEBCAEBDABDCEBACDEDBACEBDACECEDABCEADBABEDCCBADEAECDBDAEBCDCAEBDAECBDCAEBDCABECABDEEADCBECABDCABEDDEBCAADECBBCDAEACEDBCDBEAAEDCBECADBDBEACEACBDADEBCCEBADBAECDCADEBABECDCDEBAABCDEECBDAAEDBCCABEDDBAECACDBEADCBECBEDADAECBAEDCBADCEBAEBDCCABDEACBEDEDCABECDABBDECACADEBCAEBDBDECAADCBEABCEDBDCEAACDBEABCEDACBDECADEBCEDABDABECEDABCBACEDBCDAEBCEADCDBEAEABDCCEDBA</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ADBCBACDDCBAACDBADBCBCADCABDCADBBACDBDACDACBCDABBCDADABCCDBADCABACBDACBDCBDACBADACDBBADCDBCABACDCBDAADBCCDBABACDCBDACDBABDCABDACADBCDCABBADCBACDDABCDACBDCBABACDCADBBACDBDCACBADDACBCADBBDACDACBDACBDACBABCDDBCAADCBDABCBDACDCBADABCDBACDBCADBACBACDDCBADACBDCABADBCBACDBACDBCADDACBADBCBCADCABDADCBCADBACBDDCBADBACCABDBADCADCBACDBADBCADCBDBCAABCDADCBBDACBCDABACDDCBAACDBBCDAADCBBDACDBCADCBABACDCADBBCADDCBABDCAABCDABDCDCBAADCBABDCBDCADACBADBCACBDABCDBADCDBCABDCABCDADCABDACBABDCDBACDCBAACDBCDBADABCDACBCABDBADCADCBBDACCABDCDABDBACABDCDABCACDBBADCADCBDABCABDCDBCACADBDACBBCADBCADCBDABCADDCABCADBBCDACABDABDCDBACABDCDBACADCBABCDACBDCBDADCBAABDCBCDAADBCACDBBADCADBCACBDCBADABDCACBDABDCCBDACBADCADBDBACBDACADCBCABDCBDACBDABDCABCADCDABDBCAABCDBDACDCBADABCDBCACBADCBDABADCABDCDABCDABCDABCACBDCBDAABCDACDBBDCABACD</t>
+          <t>DBECAEBDCADCEBAAECBDADEBCDECABCBAEDEABCDBDECADEACBDECABDABECADCBEEABCDCDBAEDCEBAAECDBDCBEACADBEBCDEADECABCDEBADCEBACEBDABACDEECABDEADBCECDABECBDACADEBBEDCAEDBCAABDCECDBEABACDEBCEDACADEBDACBECADBEBEADCCEBADCADEBACBEDADEBCEADBCEBADCCBDEACABDEDEBACCADEBEDBACBACDEDEABCDABCEDEABCDAECBDBAECCADEBAECBDBDACEBAEDCEDACBDABECCADBEBDEACBADECEBCDAABDECBADCEDECABDABECBACEDBCDEAECADBDCEABCBAEDBECDACEADBEABDCAEBCDDEBACBCEDACEADBBDCAEEACBDDBACEAECBDBAEDCCEADBBCADEEABDCCABEDEBDCADEABCEADCBADEBCEACDBDCABEDEBACEBCADAECBDABECDDBACEABDECEBACDCEBADEADCBBECDABAECDDABECEABCDDBACEEACBDBEADCDCBEAECADBBCAEDDABECEBACDDCEBADCBAEDCAEBBDACEEADBCCBDAEBADECCAEBDDCEABBCDEABCEADADBECEBADCCBEADAEBCDEDACBAEDCBBEADCCAEBDDECBAEDCABCBEADEDACBBADCECABDEDECABCBEDAEACDBADECBCBADEDABCECBAEDAECBDCADBEADCEBDEBACACBDEEABCDBDECADBAECDABECDAECBBAEDCDBACEDCEBAABDECBDEACDBAECADCEBEBDCABCDAEADEBCDEABCAEDBCEDBCABCDAECDABECEDABCEADBADCEBEDCBADACBECBAEDEDCBAABEDCEACDBCEBDABEDACCAEDBBEDACADBCECABEDBEADCACDBECBEADCBDAEEDBCAEBDACEDBCAEBDCACBEADBADCECBDAECDEABAEDBCBACEDDECBABEDACDABECAECBDBCADEDBACEABECDADECBCBEADCBDEAEDBCABDCEADABECEDBACDEBACDEABCECDABADEBCBEACDADCEBEACBDDEBACACBDECBADEEACDBDEBACBCAEDEDCABBADCEDACEBAECBDCADEBDEABCDBAECACEBDBDCAEAEDCBCEDBACBADEEADCBBEACDBDECAEDACBACDBEEDABCDECABADBCE</t>
         </is>
       </c>
     </row>
@@ -595,43 +595,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ADBCBACDDCBAACDBADBCBCADCABDCADBBACDBDACDACBCDABBCDADABCCDBADCABACBDACBDCBDACBADACDBBADCDBCABACDCBDAADBCCDBABACDCBDACDBABDCABDACADBCDCABBADCBACDDABCDACBDCBABACDCADBBACDBDCACBADDACBCADBBDACDACBDACBDACBABCDDBCAADCBDABCBDACDCBADABCDBACDBCADBACBACDDCBADACBDCABADBCBACDBACDBCADDACBADBCBCADCABDADCBCADBACBDDCBADBACCABDBADCADCBACDBADBCADCBDBCAABCDADCBBDACBCDABACDDCBAACDBBCDAADCBBDACDBCADCBABACDCADBBCADDCBABDCAABCDABDCDCBAADCBABDCBDCADACBADBCACBDABCDBADCDBCABDCABCDADCABDACBABDCDBACDCBAACDBCDBADABCDACBCABDBADCADCBBDACCABDCDABDBACABDCDABCACDBBADCADCBDABCABDCDBCACADBDACBBCADBCADCBDABCADDCABCADBBCDACABDABDCDBACABDCDBACADCBABCDACBDCBDADCBAABDCBCDAADBCACDBBADCADBCACBDCBADABDCACBDABDCCBDACBADCADBDBACBDACADCBCABDCBDACBDABDCABCADCDABDBCAABCDBDACDCBADABCDBCACBADCBDABADCABDCDABCDABCDABCACBDCBDAABCDACDBBDCABACD</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>acSn042190120031</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CABDBCADCDABDBCAADBCADCBBCDACADBACDBDBACABDCCABDBACDDCBACADBDABCDCBACDBADBACADCBDBACBCADBCADCADBDBCAABDCBDACADCBACDBDCABABDCDABCBDCABCDACADBDCBADBACCDBADACBBDACBDCAADBCADCBDBCADCABCADBDCABDACBADBCBACDDBACCADBACDBCABDCBADCADBDBACCBDAACBDACDBACBDDCABBADCCBDACBADABDCDBACDCBAADBCBACDCDABCDABACBDBDACBACDDBACBCADCADBBACDBCADCABDBACDCABDBCADCBDACDBADCABCABDDCABACDBDBACADBCBDACBCDAADBCABCDACBDCDABBADCBCADBADCCDBACDABCDBABDACBACDADBCDCBAACDBDACBCBDACBDACDBAABDCBADCABCDBDACDABCABCDACDBCADBCDABCBDACBADADBCDACBACBDCBADDBCADBCABADCADCBACBDACDBDABCCDBACBADDCBAABDCCDBAABDCACDBCDBADACBDABCCDABDACBBADCBDCAADBCADCBBADCADCBABDCBDCACABDBACDCADBABDCBDACBACDABDCCDABDBCADCBAABCDADBCCBDABACDBACDDCABDCBAACDBBACDCDBADACBDCABADBCCDABDCABBADCACDBDACBCBADDCABDBCAADBCBACDBCADDBACCBDACDABDCBAABDCCDBACDBADABCDBACACBDCADB</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>acSn042051920077</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CABDBCADCDABDBCAADBCADCBBCDACADBACDBDBACABDCCABDBACDDCBACADBDABCDCBACDBADBACADCBDBACBCADBCADCADBDBCAABDCBDACADCBACDBDCABABDCDABCBDCABCDACADBDCBADBACCDBADACBBDACBDCAADBCADCBDBCADCABCADBDCABDACBADBCBACDDBACCADBACDBCABDCBADCADBDBACCBDAACBDACDBACBDDCABBADCCBDACBADABDCDBACDCBAADBCBACDCDABCDABACBDBDACBACDDBACBCADCADBBACDBCADCABDBACDCABDBCADCBDACDBADCABCABDDCABACDBDBACADBCBDACBCDAADBCABCDACBDCDABBADCBCADBADCCDBACDABCDBABDACBACDADBCDCBAACDBDACBCBDACBDACDBAABDCBADCABCDBDACDABCABCDACDBCADBCDABCBDACBADADBCDACBACBDCBADDBCADBCABADCADCBACBDACDBDABCCDBACBADDCBAABDCCDBAABDCACDBCDBADACBDABCCDABDACBBADCBDCAADBCADCBBADCADCBABDCBDCACABDBACDCADBABDCBDACBACDABDCCDABDBCADCBAABCDADBCCBDABACDBACDDCABDCBAACDBBACDCDBADACBDCABADBCCDABDCABBADCACDBDACBCBADDCABDBCAADBCBACDBCADDBACCBDACDABDCBAABDCCDBACDBADABCDBACACBDCADB</t>
+          <t>DBECAEBDCADCEBAAECBDADEBCDECABCBAEDEABCDBDECADEACBDECABDABECADCBEEABCDCDBAEDCEBAAECDBDCBEACADBEBCDEADECABCDEBADCEBACEBDABACDEECABDEADBCECDABECBDACADEBBEDCAEDBCAABDCECDBEABACDEBCEDACADEBDACBECADBEBEADCCEBADCADEBACBEDADEBCEADBCEBADCCBDEACABDEDEBACCADEBEDBACBACDEDEABCDABCEDEABCDAECBDBAECCADEBAECBDBDACEBAEDCEDACBDABECCADBEBDEACBADECEBCDAABDECBADCEDECABDABECBACEDBCDEAECADBDCEABCBAEDBECDACEADBEABDCAEBCDDEBACBCEDACEADBBDCAEEACBDDBACEAECBDBAEDCCEADBBCADEEABDCCABEDEBDCADEABCEADCBADEBCEACDBDCABEDEBACEBCADAECBDABECDDBACEABDECEBACDCEBADEADCBBECDABAECDDABECEABCDDBACEEACBDBEADCDCBEAECADBBCAEDDABECEBACDDCEBADCBAEDCAEBBDACEEADBCCBDAEBADECCAEBDDCEABBCDEABCEADADBECEBADCCBEADAEBCDEDACBAEDCBBEADCCAEBDDECBAEDCABCBEADEDACBBADCECABDEDECABCBEDAEACDBADECBCBADEDABCECBAEDAECBDCADBEADCEBDEBACACBDEEABCDBDECADBAECDABECDAECBBAEDCDBACEDCEBAABDECBDEACDBAECADCEBEBDCABCDAEADEBCDEABCAEDBCEDBCABCDAECDABECEDABCEADBADCEBEDCBADACBECBAEDEDCBAABEDCEACDBCEBDABEDACCAEDBBEDACADBCECABEDBEADCACDBECBEADCBDAEEDBCAEBDACEDBCAEBDCACBEADBADCECBDAECDEABAEDBCBACEDDECBABEDACDABECAECBDBCADEDBACEABECDADECBCBEADCBDEAEDBCABDCEADABECEDBACDEBACDEABCECDABADEBCBEACDADCEBEACBDDEBACACBDECBADEEACDBDEBACBCAEDEDCABBADCEDACEBAECBDCADEBDEABCDBAECACEBDBDCAEAEDCBCEDBACBADEEADCBBEACDBDECAEDACBACDBEEDABCDECABADBCE</t>
         </is>
       </c>
     </row>

--- a/camera_sequence.xlsx
+++ b/camera_sequence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,42 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>acSn042190120031</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DCAEBCDABEBCDEACEADBEACDBCDABEACBDEDAECBECDBAEBACDEACDBEACBDCEDBABACDEDCEBACADBEEBADCEDCBAAEBDCEADCBCBDAEACDBEBCDEAEDCBAADBECABDCEBCDAEDECABDAECBBEADCCADEBCDEBADECBABECADDCEABBEDACECADBBDAECDCBEAABCEDBECADAECBDDCEABCEBDAAEDCBECBADCBDEADECABACBEDAECBDDCEBACBDEAEDCBACAEDBBEACDECDABCEDABEABDCCAEBDDABECDCAEBEBADCABEDCECABDDCEABDACEBABECDECBADDECABBEDACDACBEBCDEAEACBDCDBAECDBEADEBACBADECBCDEADCBEABECADDCBEADABECBEDCAEDBCACEADBDECBAAEBDCBDCEAADBECBDEACEDCBAECBDABAEDCABECDAEBCDADECBCDEABEDCBAECDABEBADCEABDCBDAECAEDBCCDAEBBCEADBAEDCDBCEAEBADCCEADBCABEDBACEDDCEABECDBABDCAEEBCADEBCDAECADBADECBBCEDAEDACBEDCABAEDBCEACBDDBECACEBADBDECAEBACDBCDAEBCEADCDEABDABECEDCBAECDBABEDCACDABEBDAECCEDABCBADEAEBCDECDABBECADACBEDDCBAEAECBDCBAEDAEBDCEBDCADBACEDECABDEACBDCBEABCADEEBDCADCBAEBADCEADBCEDBCAEADCBEEDACBDEBACEDBACBCEDADECABABCDEEACDBBAECDDAECBBDECACEBDAADEBCECABDAECBDBACEDDAEBCBDEACECBDACDEBAABEDCCAEDBCAEDBCDBEACDEABCBEDAAECBDCADBECAEBDBEACDCEDABCBADEAECBDCAEBDCBDEABCAEDADCEBCABEDCDEBADBCEADBCAEACDEBDECABCBDEABEACDCADEBCBAEDCDEABEDCBABEADCDEABCADBCECDEBAACEBDBEACDEDCBAEBCADEDCABDEACBDBEACBCAEDCABEDBACEDCDAEBAEBCDCDEBABCAEDCEBADDBECACAEBDDAEBCECBADEACDBEBACDCEDABACDEBBECDADABECACEDBCADEBACBDEABCEDAECDBECBDAEACBDAEDBCBCAEDBDCAEAEDCBAEDBCEBDCACBEDAEDABCADBCEECDAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>acSn042051920077</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DCAEBCDABEBCDEACEADBEACDBCDABEACBDEDAECBECDBAEBACDEACDBEACBDCEDBABACDEDCEBACADBEEBADCEDCBAAEBDCEADCBCBDAEACDBEBCDEAEDCBAADBECABDCEBCDAEDECABDAECBBEADCCADEBCDEBADECBABECADDCEABBEDACECADBBDAECDCBEAABCEDBECADAECBDDCEABCEBDAAEDCBECBADCBDEADECABACBEDAECBDDCEBACBDEAEDCBACAEDBBEACDECDABCEDABEABDCCAEBDDABECDCAEBEBADCABEDCECABDDCEABDACEBABECDECBADDECABBEDACDACBEBCDEAEACBDCDBAECDBEADEBACBADECBCDEADCBEABECADDCBEADABECBEDCAEDBCACEADBDECBAAEBDCBDCEAADBECBDEACEDCBAECBDABAEDCABECDAEBCDADECBCDEABEDCBAECDABEBADCEABDCBDAECAEDBCCDAEBBCEADBAEDCDBCEAEBADCCEADBCABEDBACEDDCEABECDBABDCAEEBCADEBCDAECADBADECBBCEDAEDACBEDCABAEDBCEACBDDBECACEBADBDECAEBACDBCDAEBCEADCDEABDABECEDCBAECDBABEDCACDABEBDAECCEDABCBADEAEBCDECDABBECADACBEDDCBAEAECBDCBAEDAEBDCEBDCADBACEDECABDEACBDCBEABCADEEBDCADCBAEBADCEADBCEDBCAEADCBEEDACBDEBACEDBACBCEDADECABABCDEEACDBBAECDDAECBBDECACEBDAADEBCECABDAECBDBACEDDAEBCBDEACECBDACDEBAABEDCCAEDBCAEDBCDBEACDEABCBEDAAECBDCADBECAEBDBEACDCEDABCBADEAECBDCAEBDCBDEABCAEDADCEBCABEDCDEBADBCEADBCAEACDEBDECABCBDEABEACDCADEBCBAEDCDEABEDCBABEADCDEABCADBCECDEBAACEBDBEACDEDCBAEBCADEDCABDEACBDBEACBCAEDCABEDBACEDCDAEBAEBCDCDEBABCAEDCEBADDBECACAEBDDAEBCECBADEACDBEBACDCEDABACDEBBECDADABECACEDBCADEBACBDEABCEDAECDBECBDAEACBDAEDBCBCAEDBDCAEAEDCBAEDBCEBDCACBEDAEDABCADBCEECDAB</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
